--- a/SUMMARY SHEETS/HUR_Genus_2PSummary.xlsx
+++ b/SUMMARY SHEETS/HUR_Genus_2PSummary.xlsx
@@ -679,28 +679,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01924</v>
+        <v>0.00001924</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.414208826695371</v>
+        <v>0.000414208826695371</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13905077625</v>
+        <v>0.00013905077625</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.99355815392895</v>
+        <v>-0.00299355815392896</v>
       </c>
       <c r="J2" t="n">
-        <v>-11.9742326157158</v>
+        <v>-0.0119742326157158</v>
       </c>
       <c r="K2" t="n">
-        <v>18.3706935844995</v>
+        <v>0.0183706935844995</v>
       </c>
       <c r="L2" t="n">
-        <v>38.8377895263724</v>
+        <v>0.0388377895263724</v>
       </c>
       <c r="M2" t="n">
         <v>2.11411666890696</v>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>12.9459298421241</v>
+        <v>0.0129459298421241</v>
       </c>
       <c r="P2" t="n">
         <v>0.70470555630232</v>
@@ -732,28 +732,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2588615525</v>
+        <v>0.0002588615525</v>
       </c>
       <c r="F3" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1458149623251</v>
+        <v>0.0111458149623251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22811063675</v>
+        <v>0.00022811063675</v>
       </c>
       <c r="I3" t="n">
-        <v>7.36632842034446</v>
+        <v>0.00736632842034446</v>
       </c>
       <c r="J3" t="n">
-        <v>29.4653136813778</v>
+        <v>0.0294653136813778</v>
       </c>
       <c r="K3" t="n">
-        <v>18.3706935844995</v>
+        <v>0.0183706935844995</v>
       </c>
       <c r="L3" t="n">
-        <v>38.8377895263724</v>
+        <v>0.0388377895263724</v>
       </c>
       <c r="M3" t="n">
         <v>2.11411666890696</v>
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>12.9459298421241</v>
+        <v>0.0129459298421241</v>
       </c>
       <c r="P3" t="n">
         <v>0.70470555630232</v>
@@ -785,16 +785,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.197359721</v>
+        <v>0.000197359721</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1244318729817</v>
+        <v>0.0021244318729817</v>
       </c>
       <c r="H4" t="n">
-        <v>0.316355612</v>
+        <v>0.000316355612</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.3706935844995</v>
+        <v>0.0183706935844995</v>
       </c>
       <c r="L4" t="n">
-        <v>38.8377895263724</v>
+        <v>0.0388377895263724</v>
       </c>
       <c r="M4" t="n">
         <v>2.11411666890696</v>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9459298421241</v>
+        <v>0.0129459298421241</v>
       </c>
       <c r="P4" t="n">
         <v>0.70470555630232</v>
@@ -838,28 +838,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.435351503</v>
+        <v>0.000435351503</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>4.68623792249731</v>
+        <v>0.00468623792249731</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2176757515</v>
+        <v>0.0002176757515</v>
       </c>
       <c r="I5" t="n">
-        <v>2.34311896124865</v>
+        <v>0.00234311896124865</v>
       </c>
       <c r="J5" t="n">
-        <v>9.37247584499462</v>
+        <v>0.00937247584499462</v>
       </c>
       <c r="K5" t="n">
-        <v>18.3706935844995</v>
+        <v>0.0183706935844995</v>
       </c>
       <c r="L5" t="n">
-        <v>38.8377895263724</v>
+        <v>0.0388377895263724</v>
       </c>
       <c r="M5" t="n">
         <v>2.11411666890696</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>12.9459298421241</v>
+        <v>0.0129459298421241</v>
       </c>
       <c r="P5" t="n">
         <v>0.70470555630232</v>
@@ -958,28 +958,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.229024656</v>
+        <v>0.000229024656</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>4.93056310010764</v>
+        <v>0.00493056310010764</v>
       </c>
       <c r="H2" t="n">
-        <v>0.233100723</v>
+        <v>0.000233100723</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5091574058127</v>
+        <v>0.0025091574058127</v>
       </c>
       <c r="J2" t="n">
-        <v>7.52747221743811</v>
+        <v>0.00752747221743811</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6079168783638</v>
+        <v>0.0146079168783638</v>
       </c>
       <c r="L2" t="n">
-        <v>18.213952992465</v>
+        <v>0.018213952992465</v>
       </c>
       <c r="M2" t="n">
         <v>1.24685491737992</v>
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>4.55348824811625</v>
+        <v>0.00455348824811625</v>
       </c>
       <c r="P2" t="n">
         <v>0.311713729344979</v>
@@ -1011,16 +1011,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.23717679</v>
+        <v>0.00023717679</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.55303326157158</v>
+        <v>0.00255303326157158</v>
       </c>
       <c r="H3" t="n">
-        <v>0.449513083</v>
+        <v>0.000449513083</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14.6079168783638</v>
+        <v>0.0146079168783638</v>
       </c>
       <c r="L3" t="n">
-        <v>18.213952992465</v>
+        <v>0.018213952992465</v>
       </c>
       <c r="M3" t="n">
         <v>1.24685491737992</v>
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>4.55348824811625</v>
+        <v>0.00455348824811625</v>
       </c>
       <c r="P3" t="n">
         <v>0.311713729344979</v>
@@ -1064,28 +1064,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.661849376</v>
+        <v>0.000661849376</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>7.12432051668461</v>
+        <v>0.00712432051668461</v>
       </c>
       <c r="H4" t="n">
-        <v>0.330924688</v>
+        <v>0.000330924688</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5621602583423</v>
+        <v>0.0035621602583423</v>
       </c>
       <c r="J4" t="n">
-        <v>10.6864807750269</v>
+        <v>0.0106864807750269</v>
       </c>
       <c r="K4" t="n">
-        <v>14.6079168783638</v>
+        <v>0.0146079168783638</v>
       </c>
       <c r="L4" t="n">
-        <v>18.213952992465</v>
+        <v>0.018213952992465</v>
       </c>
       <c r="M4" t="n">
         <v>1.24685491737992</v>
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4.55348824811625</v>
+        <v>0.00455348824811625</v>
       </c>
       <c r="P4" t="n">
         <v>0.311713729344979</v>
@@ -1184,16 +1184,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.669578504</v>
+        <v>0.001669578504</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.9717815285253</v>
+        <v>0.0179717815285253</v>
       </c>
       <c r="H2" t="n">
-        <v>1.98090449</v>
+        <v>0.00198090449</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.6459524219591</v>
+        <v>0.0426459524219591</v>
       </c>
       <c r="L2" t="n">
-        <v>24.6741708934338</v>
+        <v>0.0246741708934338</v>
       </c>
       <c r="M2" t="n">
         <v>0.578581776045144</v>
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>4.1123618155723</v>
+        <v>0.0041123618155723</v>
       </c>
       <c r="P2" t="n">
         <v>0.096430296007524</v>
@@ -1237,28 +1237,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>2.292230476</v>
+        <v>0.002292230476</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>24.6741708934338</v>
+        <v>0.0246741708934338</v>
       </c>
       <c r="H3" t="n">
-        <v>1.146115238</v>
+        <v>0.001146115238</v>
       </c>
       <c r="I3" t="n">
-        <v>12.3370854467169</v>
+        <v>0.0123370854467169</v>
       </c>
       <c r="J3" t="n">
-        <v>24.6741708934338</v>
+        <v>0.0246741708934338</v>
       </c>
       <c r="K3" t="n">
-        <v>42.6459524219591</v>
+        <v>0.0426459524219591</v>
       </c>
       <c r="L3" t="n">
-        <v>24.6741708934338</v>
+        <v>0.0246741708934338</v>
       </c>
       <c r="M3" t="n">
         <v>0.578581776045144</v>
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>4.1123618155723</v>
+        <v>0.0041123618155723</v>
       </c>
       <c r="P3" t="n">
         <v>0.096430296007524</v>
@@ -1357,16 +1357,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.073929356</v>
+        <v>0.000073929356</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.795795005382131</v>
+        <v>0.000795795005382131</v>
       </c>
       <c r="H2" t="n">
-        <v>0.116305971</v>
+        <v>0.000116305971</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.50389603875135</v>
+        <v>0.00250389603875135</v>
       </c>
       <c r="L2" t="n">
-        <v>1.70810103336921</v>
+        <v>0.00170810103336921</v>
       </c>
       <c r="M2" t="n">
         <v>0.682177297672877</v>
@@ -1387,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.284683505561536</v>
+        <v>0.000284683505561536</v>
       </c>
       <c r="P2" t="n">
         <v>0.113696216278813</v>
@@ -1410,28 +1410,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.158682586</v>
+        <v>0.000158682586</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.70810103336921</v>
+        <v>0.00170810103336921</v>
       </c>
       <c r="H3" t="n">
-        <v>0.079341293</v>
+        <v>0.000079341293</v>
       </c>
       <c r="I3" t="n">
-        <v>0.854050516684607</v>
+        <v>0.000854050516684607</v>
       </c>
       <c r="J3" t="n">
-        <v>1.70810103336921</v>
+        <v>0.00170810103336921</v>
       </c>
       <c r="K3" t="n">
-        <v>2.50389603875135</v>
+        <v>0.00250389603875135</v>
       </c>
       <c r="L3" t="n">
-        <v>1.70810103336921</v>
+        <v>0.00170810103336921</v>
       </c>
       <c r="M3" t="n">
         <v>0.682177297672877</v>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.284683505561536</v>
+        <v>0.000284683505561536</v>
       </c>
       <c r="P3" t="n">
         <v>0.113696216278813</v>
@@ -1530,16 +1530,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.087147266</v>
+        <v>0.000087147266</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.938076060279871</v>
+        <v>0.000938076060279871</v>
       </c>
       <c r="H2" t="n">
-        <v>0.444738553</v>
+        <v>0.000444738553</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.8285159741658</v>
+        <v>0.0218285159741658</v>
       </c>
       <c r="L2" t="n">
-        <v>18.3809261786868</v>
+        <v>0.0183809261786868</v>
       </c>
       <c r="M2" t="n">
         <v>0.842060275670629</v>
@@ -1560,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>4.59523154467169</v>
+        <v>0.00459523154467169</v>
       </c>
       <c r="P2" t="n">
         <v>0.210515068917657</v>
@@ -1583,16 +1583,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.80232984</v>
+        <v>0.00080232984</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.63648912809473</v>
+        <v>0.00863648912809473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.970360934</v>
+        <v>0.000970360934</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.8285159741658</v>
+        <v>0.0218285159741658</v>
       </c>
       <c r="L3" t="n">
-        <v>18.3809261786868</v>
+        <v>0.0183809261786868</v>
       </c>
       <c r="M3" t="n">
         <v>0.842060275670629</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>4.59523154467169</v>
+        <v>0.00459523154467169</v>
       </c>
       <c r="P3" t="n">
         <v>0.210515068917657</v>
@@ -1636,28 +1636,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.138392028</v>
+        <v>0.001138392028</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>12.2539507857912</v>
+        <v>0.0122539507857912</v>
       </c>
       <c r="H4" t="n">
-        <v>0.569196014</v>
+        <v>0.000569196014</v>
       </c>
       <c r="I4" t="n">
-        <v>6.12697539289559</v>
+        <v>0.00612697539289559</v>
       </c>
       <c r="J4" t="n">
-        <v>18.3809261786868</v>
+        <v>0.0183809261786868</v>
       </c>
       <c r="K4" t="n">
-        <v>21.8285159741658</v>
+        <v>0.0218285159741658</v>
       </c>
       <c r="L4" t="n">
-        <v>18.3809261786868</v>
+        <v>0.0183809261786868</v>
       </c>
       <c r="M4" t="n">
         <v>0.842060275670629</v>
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4.59523154467169</v>
+        <v>0.00459523154467169</v>
       </c>
       <c r="P4" t="n">
         <v>0.210515068917657</v>
@@ -1756,16 +1756,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005416747</v>
+        <v>0.000005416747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0583072874058127</v>
+        <v>0.0000583072874058127</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0116729545</v>
+        <v>0.0000116729545</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.70249560818084</v>
+        <v>0.00070249560818084</v>
       </c>
       <c r="L2" t="n">
-        <v>0.676791167922497</v>
+        <v>0.000676791167922497</v>
       </c>
       <c r="M2" t="n">
         <v>0.963409820703498</v>
@@ -1786,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.169197791980624</v>
+        <v>0.000169197791980624</v>
       </c>
       <c r="P2" t="n">
         <v>0.240852455175874</v>
@@ -1809,16 +1809,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.017929162</v>
+        <v>0.000017929162</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.192994208826695</v>
+        <v>0.000192994208826695</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0299225475</v>
+        <v>0.0000299225475</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.70249560818084</v>
+        <v>0.00070249560818084</v>
       </c>
       <c r="L3" t="n">
-        <v>0.676791167922497</v>
+        <v>0.000676791167922497</v>
       </c>
       <c r="M3" t="n">
         <v>0.963409820703498</v>
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.169197791980624</v>
+        <v>0.000169197791980624</v>
       </c>
       <c r="P3" t="n">
         <v>0.240852455175874</v>
@@ -1862,28 +1862,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.041915933</v>
+        <v>0.000041915933</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.451194111948332</v>
+        <v>0.000451194111948332</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0209579665</v>
+        <v>0.0000209579665</v>
       </c>
       <c r="I4" t="n">
-        <v>0.225597055974166</v>
+        <v>0.000225597055974166</v>
       </c>
       <c r="J4" t="n">
-        <v>0.676791167922497</v>
+        <v>0.000676791167922497</v>
       </c>
       <c r="K4" t="n">
-        <v>0.70249560818084</v>
+        <v>0.00070249560818084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.676791167922497</v>
+        <v>0.000676791167922497</v>
       </c>
       <c r="M4" t="n">
         <v>0.963409820703498</v>
@@ -1892,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.169197791980624</v>
+        <v>0.000169197791980624</v>
       </c>
       <c r="P4" t="n">
         <v>0.240852455175874</v>
@@ -1982,28 +1982,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.030675914</v>
+        <v>0.000030675914</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.330203595263724</v>
+        <v>0.000330203595263724</v>
       </c>
       <c r="H2" t="n">
-        <v>0.015337957</v>
+        <v>0.000015337957</v>
       </c>
       <c r="I2" t="n">
-        <v>0.165101797631862</v>
+        <v>0.000165101797631862</v>
       </c>
       <c r="J2" t="n">
-        <v>0.165101797631862</v>
+        <v>0.000165101797631862</v>
       </c>
       <c r="K2" t="n">
-        <v>0.330203595263724</v>
+        <v>0.000330203595263724</v>
       </c>
       <c r="L2" t="n">
-        <v>0.165101797631862</v>
+        <v>0.000165101797631862</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2012,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0137584831359885</v>
+        <v>0.0000137584831359885</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2102,16 +2102,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.114512328</v>
+        <v>0.000114512328</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23264077502691</v>
+        <v>0.00123264077502691</v>
       </c>
       <c r="H2" t="n">
-        <v>0.175844559</v>
+        <v>0.000175844559</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.3097936167923</v>
+        <v>0.0143097936167923</v>
       </c>
       <c r="L2" t="n">
-        <v>15.7861793702906</v>
+        <v>0.0157861793702906</v>
       </c>
       <c r="M2" t="n">
         <v>1.10317309900025</v>
@@ -2132,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>3.94654484257266</v>
+        <v>0.00394654484257266</v>
       </c>
       <c r="P2" t="n">
         <v>0.275793274750061</v>
@@ -2155,16 +2155,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.23717679</v>
+        <v>0.00023717679</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.55303326157158</v>
+        <v>0.00255303326157158</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6074337495</v>
+        <v>0.0006074337495</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14.3097936167923</v>
+        <v>0.0143097936167923</v>
       </c>
       <c r="L3" t="n">
-        <v>15.7861793702906</v>
+        <v>0.0157861793702906</v>
       </c>
       <c r="M3" t="n">
         <v>1.10317309900025</v>
@@ -2185,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>3.94654484257266</v>
+        <v>0.00394654484257266</v>
       </c>
       <c r="P3" t="n">
         <v>0.275793274750061</v>
@@ -2208,28 +2208,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.977690709</v>
+        <v>0.000977690709</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5241195801938</v>
+        <v>0.0105241195801938</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4888453545</v>
+        <v>0.0004888453545</v>
       </c>
       <c r="I4" t="n">
-        <v>5.26205979009688</v>
+        <v>0.00526205979009688</v>
       </c>
       <c r="J4" t="n">
-        <v>15.7861793702906</v>
+        <v>0.0157861793702906</v>
       </c>
       <c r="K4" t="n">
-        <v>14.3097936167923</v>
+        <v>0.0143097936167923</v>
       </c>
       <c r="L4" t="n">
-        <v>15.7861793702906</v>
+        <v>0.0157861793702906</v>
       </c>
       <c r="M4" t="n">
         <v>1.10317309900025</v>
@@ -2238,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>3.94654484257266</v>
+        <v>0.00394654484257266</v>
       </c>
       <c r="P4" t="n">
         <v>0.275793274750061</v>
@@ -2328,16 +2328,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.304332695</v>
+        <v>0.000304332695</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2759170613563</v>
+        <v>0.0032759170613563</v>
       </c>
       <c r="H2" t="n">
-        <v>0.477090552</v>
+        <v>0.000477090552</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>19.8140697201292</v>
+        <v>0.0198140697201292</v>
       </c>
       <c r="L2" t="n">
-        <v>14.3145205543595</v>
+        <v>0.0143145205543595</v>
       </c>
       <c r="M2" t="n">
         <v>0.722442221943802</v>
@@ -2358,10 +2358,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>3.57863013858988</v>
+        <v>0.00357863013858988</v>
       </c>
       <c r="P2" t="n">
-        <v>0.180610555485951</v>
+        <v>0.18061055548595</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0464874560313851</v>
@@ -2381,16 +2381,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.649848409</v>
+        <v>0.000649848409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.99513895586652</v>
+        <v>0.00699513895586652</v>
       </c>
       <c r="H3" t="n">
-        <v>0.768197191</v>
+        <v>0.000768197191</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>19.8140697201292</v>
+        <v>0.0198140697201292</v>
       </c>
       <c r="L3" t="n">
-        <v>14.3145205543595</v>
+        <v>0.0143145205543595</v>
       </c>
       <c r="M3" t="n">
         <v>0.722442221943802</v>
@@ -2411,10 +2411,10 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>3.57863013858988</v>
+        <v>0.00357863013858988</v>
       </c>
       <c r="P3" t="n">
-        <v>0.180610555485951</v>
+        <v>0.18061055548595</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0464874560313851</v>
@@ -2434,28 +2434,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.886545973</v>
+        <v>0.000886545973</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>9.54301370290635</v>
+        <v>0.00954301370290635</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4432729865</v>
+        <v>0.0004432729865</v>
       </c>
       <c r="I4" t="n">
-        <v>4.77150685145318</v>
+        <v>0.00477150685145318</v>
       </c>
       <c r="J4" t="n">
-        <v>14.3145205543595</v>
+        <v>0.0143145205543595</v>
       </c>
       <c r="K4" t="n">
-        <v>19.8140697201292</v>
+        <v>0.0198140697201292</v>
       </c>
       <c r="L4" t="n">
-        <v>14.3145205543595</v>
+        <v>0.0143145205543595</v>
       </c>
       <c r="M4" t="n">
         <v>0.722442221943802</v>
@@ -2464,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>3.57863013858988</v>
+        <v>0.00357863013858988</v>
       </c>
       <c r="P4" t="n">
-        <v>0.180610555485951</v>
+        <v>0.18061055548595</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0464874560313851</v>
@@ -2554,28 +2554,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0049</v>
+        <v>0.0000049</v>
       </c>
       <c r="F2" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0527448869752422</v>
+        <v>0.0000527448869752422</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05516481925</v>
+        <v>0.00005516481925</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.4845215083423</v>
+        <v>-0.0014845215083423</v>
       </c>
       <c r="J2" t="n">
-        <v>-19.29877960845</v>
+        <v>-0.01929877960845</v>
       </c>
       <c r="K2" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L2" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M2" t="n">
         <v>4.79596781150491</v>
@@ -2584,7 +2584,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O2" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P2" t="n">
         <v>5.19563179579699</v>
@@ -2607,28 +2607,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1054296385</v>
+        <v>0.0001054296385</v>
       </c>
       <c r="F3" t="n">
         <v>-2.51166128453534</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9720531189451</v>
+        <v>0.0039720531189451</v>
       </c>
       <c r="H3" t="n">
-        <v>0.215389715883333</v>
+        <v>0.000215389715883333</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.540986010471236</v>
+        <v>-0.000540986010471236</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.03281813612606</v>
+        <v>-0.00703281813612606</v>
       </c>
       <c r="K3" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L3" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M3" t="n">
         <v>4.79596781150491</v>
@@ -2637,7 +2637,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O3" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P3" t="n">
         <v>5.19563179579699</v>
@@ -2660,28 +2660,28 @@
         <v>40.1865805525655</v>
       </c>
       <c r="E4" t="n">
-        <v>0.325349793266667</v>
+        <v>0.000325349793266667</v>
       </c>
       <c r="F4" t="n">
         <v>-37.854323645497</v>
       </c>
       <c r="G4" t="n">
-        <v>13.0746956748714</v>
+        <v>0.0130746956748714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.689628573135714</v>
+        <v>0.000689628573135714</v>
       </c>
       <c r="I4" t="n">
-        <v>-26.1054232026616</v>
+        <v>-0.0261054232026616</v>
       </c>
       <c r="J4" t="n">
-        <v>-339.370501634601</v>
+        <v>-0.339370501634601</v>
       </c>
       <c r="K4" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L4" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M4" t="n">
         <v>4.79596781150491</v>
@@ -2690,7 +2690,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O4" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P4" t="n">
         <v>5.19563179579699</v>
@@ -2713,28 +2713,28 @@
         <v>78.0409041980624</v>
       </c>
       <c r="E5" t="n">
-        <v>1.05390735300476</v>
+        <v>0.00105390735300476</v>
       </c>
       <c r="F5" t="n">
         <v>29.2429135270901</v>
       </c>
       <c r="G5" t="n">
-        <v>82.2478827694782</v>
+        <v>0.0822478827694782</v>
       </c>
       <c r="H5" t="n">
-        <v>1.14498492726238</v>
+        <v>0.00114498492726238</v>
       </c>
       <c r="I5" t="n">
-        <v>33.4826952177553</v>
+        <v>0.0334826952177553</v>
       </c>
       <c r="J5" t="n">
-        <v>435.275037830819</v>
+        <v>0.435275037830819</v>
       </c>
       <c r="K5" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L5" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M5" t="n">
         <v>4.79596781150491</v>
@@ -2743,7 +2743,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O5" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P5" t="n">
         <v>5.19563179579699</v>
@@ -2766,28 +2766,28 @@
         <v>48.7979906709724</v>
       </c>
       <c r="E6" t="n">
-        <v>1.23606250152</v>
+        <v>0.00123606250152</v>
       </c>
       <c r="F6" t="n">
         <v>-37.3161105130965</v>
       </c>
       <c r="G6" t="n">
-        <v>60.3173664179117</v>
+        <v>0.0603173664179117</v>
       </c>
       <c r="H6" t="n">
-        <v>2.26096075439333</v>
+        <v>0.00226096075439333</v>
       </c>
       <c r="I6" t="n">
-        <v>-84.3702613767157</v>
+        <v>-0.0843702613767157</v>
       </c>
       <c r="J6" t="n">
-        <v>-1096.8133978973</v>
+        <v>-1.0968133978973</v>
       </c>
       <c r="K6" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L6" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M6" t="n">
         <v>4.79596781150491</v>
@@ -2796,7 +2796,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O6" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P6" t="n">
         <v>5.19563179579699</v>
@@ -2819,28 +2819,28 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E7" t="n">
-        <v>3.28585900726667</v>
+        <v>0.00328585900726667</v>
       </c>
       <c r="F7" t="n">
         <v>43.0570505920344</v>
       </c>
       <c r="G7" t="n">
-        <v>282.958795028346</v>
+        <v>0.282958795028346</v>
       </c>
       <c r="H7" t="n">
-        <v>3.24758918413333</v>
+        <v>0.00324758918413333</v>
       </c>
       <c r="I7" t="n">
-        <v>139.831611803373</v>
+        <v>0.139831611803373</v>
       </c>
       <c r="J7" t="n">
-        <v>1817.81095344385</v>
+        <v>1.81781095344385</v>
       </c>
       <c r="K7" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L7" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M7" t="n">
         <v>4.79596781150491</v>
@@ -2849,7 +2849,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O7" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P7" t="n">
         <v>5.19563179579699</v>
@@ -2872,28 +2872,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E8" t="n">
-        <v>3.209319361</v>
+        <v>0.003209319361</v>
       </c>
       <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>138.183826092573</v>
+        <v>0.138183826092573</v>
       </c>
       <c r="H8" t="n">
-        <v>3.312247723</v>
+        <v>0.003312247723</v>
       </c>
       <c r="I8" t="n">
-        <v>35.6539044456405</v>
+        <v>0.0356539044456405</v>
       </c>
       <c r="J8" t="n">
-        <v>463.500757793326</v>
+        <v>0.463500757793326</v>
       </c>
       <c r="K8" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L8" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M8" t="n">
         <v>4.79596781150491</v>
@@ -2902,7 +2902,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O8" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P8" t="n">
         <v>5.19563179579699</v>
@@ -2925,28 +2925,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E9" t="n">
-        <v>3.415176085</v>
+        <v>0.003415176085</v>
       </c>
       <c r="F9" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G9" t="n">
-        <v>110.285557104413</v>
+        <v>0.110285557104413</v>
       </c>
       <c r="H9" t="n">
-        <v>2.482551919</v>
+        <v>0.002482551919</v>
       </c>
       <c r="I9" t="n">
-        <v>53.4456817868676</v>
+        <v>0.0534456817868676</v>
       </c>
       <c r="J9" t="n">
-        <v>694.793863229279</v>
+        <v>0.694793863229279</v>
       </c>
       <c r="K9" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L9" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M9" t="n">
         <v>4.79596781150491</v>
@@ -2955,7 +2955,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O9" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P9" t="n">
         <v>5.19563179579699</v>
@@ -2978,16 +2978,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>1.549927753</v>
+        <v>0.001549927753</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16.6838294187298</v>
+        <v>0.0166838294187298</v>
       </c>
       <c r="H10" t="n">
-        <v>1.796293866</v>
+        <v>0.001796293866</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -2996,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L10" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M10" t="n">
         <v>4.79596781150491</v>
@@ -3008,7 +3008,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O10" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P10" t="n">
         <v>5.19563179579699</v>
@@ -3031,16 +3031,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>2.042659979</v>
+        <v>0.002042659979</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9877285145318</v>
+        <v>0.0219877285145318</v>
       </c>
       <c r="H11" t="n">
-        <v>2.668054497</v>
+        <v>0.002668054497</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L11" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M11" t="n">
         <v>4.79596781150491</v>
@@ -3061,7 +3061,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O11" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P11" t="n">
         <v>5.19563179579699</v>
@@ -3084,28 +3084,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>3.293449015</v>
+        <v>0.003293449015</v>
       </c>
       <c r="F12" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>35.4515502152853</v>
+        <v>0.0354515502152853</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6449903275</v>
+        <v>0.0086449903275</v>
       </c>
       <c r="I12" t="n">
-        <v>-93.056946474704</v>
+        <v>-0.093056946474704</v>
       </c>
       <c r="J12" t="n">
-        <v>-1209.74030417115</v>
+        <v>-1.20974030417115</v>
       </c>
       <c r="K12" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L12" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M12" t="n">
         <v>4.79596781150491</v>
@@ -3114,7 +3114,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O12" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P12" t="n">
         <v>5.19563179579699</v>
@@ -3137,28 +3137,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E13" t="n">
-        <v>13.99653164</v>
+        <v>0.01399653164</v>
       </c>
       <c r="F13" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G13" t="n">
-        <v>301.324685468245</v>
+        <v>0.301324685468245</v>
       </c>
       <c r="H13" t="n">
-        <v>11.099761499</v>
+        <v>0.011099761499</v>
       </c>
       <c r="I13" t="n">
-        <v>119.48074810549</v>
+        <v>0.11948074810549</v>
       </c>
       <c r="J13" t="n">
-        <v>1553.24972537137</v>
+        <v>1.55324972537137</v>
       </c>
       <c r="K13" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L13" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M13" t="n">
         <v>4.79596781150491</v>
@@ -3167,7 +3167,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O13" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P13" t="n">
         <v>5.19563179579699</v>
@@ -3190,28 +3190,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>8.202991358</v>
+        <v>0.008202991358</v>
       </c>
       <c r="F14" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>88.2991534768568</v>
+        <v>0.0882991534768569</v>
       </c>
       <c r="H14" t="n">
-        <v>4.101495679</v>
+        <v>0.004101495679</v>
       </c>
       <c r="I14" t="n">
-        <v>44.1495767384284</v>
+        <v>0.0441495767384284</v>
       </c>
       <c r="J14" t="n">
-        <v>573.94449759957</v>
+        <v>0.57394449759957</v>
       </c>
       <c r="K14" t="n">
-        <v>1154.83986818716</v>
+        <v>1.15483986818716</v>
       </c>
       <c r="L14" t="n">
-        <v>5538.57483526821</v>
+        <v>5.53857483526821</v>
       </c>
       <c r="M14" t="n">
         <v>4.79596781150491</v>
@@ -3220,7 +3220,7 @@
         <v>0.923076923076923</v>
       </c>
       <c r="O14" t="n">
-        <v>6000.12273820722</v>
+        <v>6.00012273820722</v>
       </c>
       <c r="P14" t="n">
         <v>5.19563179579699</v>
@@ -3310,28 +3310,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0086</v>
+        <v>0.0000086</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.185145317545748</v>
+        <v>0.000185145317545748</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00645</v>
+        <v>0.00000645</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0694294940796556</v>
+        <v>0.0000694294940796556</v>
       </c>
       <c r="J2" t="n">
-        <v>0.208288482238967</v>
+        <v>0.000208288482238967</v>
       </c>
       <c r="K2" t="n">
-        <v>0.277717976318622</v>
+        <v>0.000277717976318622</v>
       </c>
       <c r="L2" t="n">
-        <v>0.277717976318622</v>
+        <v>0.000277717976318622</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0694294940796556</v>
+        <v>0.0000694294940796556</v>
       </c>
       <c r="P2" t="n">
         <v>0.25</v>
@@ -3363,16 +3363,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0043</v>
+        <v>0.0000043</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0043</v>
+        <v>0.0000043</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3381,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.277717976318622</v>
+        <v>0.000277717976318622</v>
       </c>
       <c r="L3" t="n">
-        <v>0.277717976318622</v>
+        <v>0.000277717976318622</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0694294940796556</v>
+        <v>0.0000694294940796556</v>
       </c>
       <c r="P3" t="n">
         <v>0.25</v>
@@ -3416,28 +3416,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0043</v>
+        <v>0.0000043</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00215</v>
+        <v>0.00000215</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0694294940796556</v>
+        <v>0.0000694294940796556</v>
       </c>
       <c r="K4" t="n">
-        <v>0.277717976318622</v>
+        <v>0.000277717976318622</v>
       </c>
       <c r="L4" t="n">
-        <v>0.277717976318622</v>
+        <v>0.000277717976318622</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0694294940796556</v>
+        <v>0.0000694294940796556</v>
       </c>
       <c r="P4" t="n">
         <v>0.25</v>
@@ -3536,16 +3536,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.049077825</v>
+        <v>0.000049077825</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.528286598493003</v>
+        <v>0.000528286598493003</v>
       </c>
       <c r="H2" t="n">
-        <v>0.183001606</v>
+        <v>0.000183001606</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.93975470398278</v>
+        <v>0.00393975470398278</v>
       </c>
       <c r="L2" t="n">
-        <v>3.41146810548977</v>
+        <v>0.00341146810548977</v>
       </c>
       <c r="M2" t="n">
         <v>0.865908758746084</v>
@@ -3566,7 +3566,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.568578017581629</v>
+        <v>0.000568578017581629</v>
       </c>
       <c r="P2" t="n">
         <v>0.144318126457681</v>
@@ -3589,28 +3589,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.316925387</v>
+        <v>0.000316925387</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>3.41146810548977</v>
+        <v>0.00341146810548977</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1584626935</v>
+        <v>0.0001584626935</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70573405274489</v>
+        <v>0.00170573405274489</v>
       </c>
       <c r="J3" t="n">
-        <v>3.41146810548977</v>
+        <v>0.00341146810548977</v>
       </c>
       <c r="K3" t="n">
-        <v>3.93975470398278</v>
+        <v>0.00393975470398278</v>
       </c>
       <c r="L3" t="n">
-        <v>3.41146810548977</v>
+        <v>0.00341146810548977</v>
       </c>
       <c r="M3" t="n">
         <v>0.865908758746084</v>
@@ -3619,7 +3619,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.568578017581629</v>
+        <v>0.000568578017581629</v>
       </c>
       <c r="P3" t="n">
         <v>0.144318126457681</v>
@@ -3709,16 +3709,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.203455455</v>
+        <v>0.000203455455</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1900479547901</v>
+        <v>0.0021900479547901</v>
       </c>
       <c r="H2" t="n">
-        <v>0.594682006</v>
+        <v>0.000594682006</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3727,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.8190880516685</v>
+        <v>0.0418190880516685</v>
       </c>
       <c r="L2" t="n">
-        <v>43.5246921636168</v>
+        <v>0.0435246921636168</v>
       </c>
       <c r="M2" t="n">
         <v>1.04078530143558</v>
@@ -3739,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>10.8811730409042</v>
+        <v>0.0108811730409042</v>
       </c>
       <c r="P2" t="n">
         <v>0.260196325358895</v>
@@ -3762,16 +3762,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.985908557</v>
+        <v>0.000985908557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.6125786544672</v>
+        <v>0.0106125786544672</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8407689125</v>
+        <v>0.0018407689125</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3780,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>41.8190880516685</v>
+        <v>0.0418190880516685</v>
       </c>
       <c r="L3" t="n">
-        <v>43.5246921636168</v>
+        <v>0.0435246921636168</v>
       </c>
       <c r="M3" t="n">
         <v>1.04078530143558</v>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>10.8811730409042</v>
+        <v>0.0108811730409042</v>
       </c>
       <c r="P3" t="n">
         <v>0.260196325358895</v>
@@ -3815,28 +3815,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>2.695629268</v>
+        <v>0.002695629268</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>29.0164614424112</v>
+        <v>0.0290164614424112</v>
       </c>
       <c r="H4" t="n">
-        <v>1.347814634</v>
+        <v>0.001347814634</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5082307212056</v>
+        <v>0.0145082307212056</v>
       </c>
       <c r="J4" t="n">
-        <v>43.5246921636168</v>
+        <v>0.0435246921636168</v>
       </c>
       <c r="K4" t="n">
-        <v>41.8190880516685</v>
+        <v>0.0418190880516685</v>
       </c>
       <c r="L4" t="n">
-        <v>43.5246921636168</v>
+        <v>0.0435246921636168</v>
       </c>
       <c r="M4" t="n">
         <v>1.04078530143558</v>
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>10.8811730409042</v>
+        <v>0.0108811730409042</v>
       </c>
       <c r="P4" t="n">
         <v>0.260196325358895</v>
@@ -3935,28 +3935,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0164</v>
+        <v>0.0000164</v>
       </c>
       <c r="F2" t="n">
         <v>-35.880875493362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.176533907427341</v>
+        <v>0.000176533907427341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.214284177908333</v>
+        <v>0.000214284177908333</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.68870390772635</v>
+        <v>-0.00768870390772635</v>
       </c>
       <c r="J2" t="n">
-        <v>-38.4435195386317</v>
+        <v>-0.0384435195386317</v>
       </c>
       <c r="K2" t="n">
-        <v>269.812484081868</v>
+        <v>0.269812484081868</v>
       </c>
       <c r="L2" t="n">
-        <v>605.957560192561</v>
+        <v>0.605957560192561</v>
       </c>
       <c r="M2" t="n">
         <v>2.24584700835673</v>
@@ -3965,7 +3965,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>252.4823167469</v>
+        <v>0.2524823167469</v>
       </c>
       <c r="P2" t="n">
         <v>0.935769586815303</v>
@@ -3988,28 +3988,28 @@
         <v>46.6451381413707</v>
       </c>
       <c r="E3" t="n">
-        <v>0.412168355816667</v>
+        <v>0.000412168355816667</v>
       </c>
       <c r="F3" t="n">
         <v>14.3523501973448</v>
       </c>
       <c r="G3" t="n">
-        <v>19.22564989457</v>
+        <v>0.01922564989457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.820444645408333</v>
+        <v>0.000820444645408333</v>
       </c>
       <c r="I3" t="n">
-        <v>11.7753088684368</v>
+        <v>0.0117753088684368</v>
       </c>
       <c r="J3" t="n">
-        <v>58.8765443421839</v>
+        <v>0.0588765443421839</v>
       </c>
       <c r="K3" t="n">
-        <v>269.812484081868</v>
+        <v>0.269812484081868</v>
       </c>
       <c r="L3" t="n">
-        <v>605.957560192561</v>
+        <v>0.605957560192561</v>
       </c>
       <c r="M3" t="n">
         <v>2.24584700835673</v>
@@ -4018,7 +4018,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>252.4823167469</v>
+        <v>0.2524823167469</v>
       </c>
       <c r="P3" t="n">
         <v>0.935769586815303</v>
@@ -4041,16 +4041,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>1.228720935</v>
+        <v>0.001228720935</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.6788245963402</v>
+        <v>0.0396788245963402</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3573127335</v>
+        <v>0.0033573127335</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4059,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>269.812484081868</v>
+        <v>0.269812484081868</v>
       </c>
       <c r="L4" t="n">
-        <v>605.957560192561</v>
+        <v>0.605957560192561</v>
       </c>
       <c r="M4" t="n">
         <v>2.24584700835673</v>
@@ -4071,7 +4071,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>252.4823167469</v>
+        <v>0.2524823167469</v>
       </c>
       <c r="P4" t="n">
         <v>0.935769586815303</v>
@@ -4094,28 +4094,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>5.485904532</v>
+        <v>0.005485904532</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>177.155151733046</v>
+        <v>0.177155151733046</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3025725135</v>
+        <v>0.0043025725135</v>
       </c>
       <c r="I5" t="n">
-        <v>92.6280411948332</v>
+        <v>0.0926280411948332</v>
       </c>
       <c r="J5" t="n">
-        <v>463.140205974166</v>
+        <v>0.463140205974166</v>
       </c>
       <c r="K5" t="n">
-        <v>269.812484081868</v>
+        <v>0.269812484081868</v>
       </c>
       <c r="L5" t="n">
-        <v>605.957560192561</v>
+        <v>0.605957560192561</v>
       </c>
       <c r="M5" t="n">
         <v>2.24584700835673</v>
@@ -4124,7 +4124,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>252.4823167469</v>
+        <v>0.2524823167469</v>
       </c>
       <c r="P5" t="n">
         <v>0.935769586815303</v>
@@ -4147,28 +4147,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>3.119240495</v>
+        <v>0.003119240495</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>33.5763239504844</v>
+        <v>0.0335763239504844</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5596202475</v>
+        <v>0.0015596202475</v>
       </c>
       <c r="I6" t="n">
-        <v>16.7881619752422</v>
+        <v>0.0167881619752422</v>
       </c>
       <c r="J6" t="n">
-        <v>83.940809876211</v>
+        <v>0.083940809876211</v>
       </c>
       <c r="K6" t="n">
-        <v>269.812484081868</v>
+        <v>0.269812484081868</v>
       </c>
       <c r="L6" t="n">
-        <v>605.957560192561</v>
+        <v>0.605957560192561</v>
       </c>
       <c r="M6" t="n">
         <v>2.24584700835673</v>
@@ -4177,7 +4177,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>252.4823167469</v>
+        <v>0.2524823167469</v>
       </c>
       <c r="P6" t="n">
         <v>0.935769586815303</v>
@@ -4267,28 +4267,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0121</v>
+        <v>0.0000121</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.130247578040904</v>
+        <v>0.000130247578040904</v>
       </c>
       <c r="H2" t="n">
-        <v>0.082897964625</v>
+        <v>0.000082897964625</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.892335464208827</v>
+        <v>-0.000892335464208827</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.13868371367061</v>
+        <v>-0.00713868371367061</v>
       </c>
       <c r="K2" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L2" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M2" t="n">
         <v>1.87497738721372</v>
@@ -4297,7 +4297,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P2" t="n">
         <v>1.24998492480915</v>
@@ -4320,28 +4320,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15369592925</v>
+        <v>0.00015369592925</v>
       </c>
       <c r="F3" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3088467007535</v>
+        <v>0.0033088467007535</v>
       </c>
       <c r="H3" t="n">
-        <v>0.265684711458333</v>
+        <v>0.000265684711458333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.953300005232628</v>
+        <v>0.000953300005232628</v>
       </c>
       <c r="J3" t="n">
-        <v>7.62640004186102</v>
+        <v>0.00762640004186102</v>
       </c>
       <c r="K3" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L3" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M3" t="n">
         <v>1.87497738721372</v>
@@ -4350,7 +4350,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P3" t="n">
         <v>1.24998492480915</v>
@@ -4373,28 +4373,28 @@
         <v>17.940437746681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.377673493666667</v>
+        <v>0.000377673493666667</v>
       </c>
       <c r="F4" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G4" t="n">
-        <v>6.77562780169836</v>
+        <v>0.00677562780169836</v>
       </c>
       <c r="H4" t="n">
-        <v>0.631331755333333</v>
+        <v>0.000631331755333333</v>
       </c>
       <c r="I4" t="n">
-        <v>4.53054722162421</v>
+        <v>0.00453054722162421</v>
       </c>
       <c r="J4" t="n">
-        <v>36.2443777729937</v>
+        <v>0.0362443777729937</v>
       </c>
       <c r="K4" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L4" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M4" t="n">
         <v>1.87497738721372</v>
@@ -4403,7 +4403,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P4" t="n">
         <v>1.24998492480915</v>
@@ -4426,16 +4426,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.884990017</v>
+        <v>0.000884990017</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9.52626498385361</v>
+        <v>0.00952626498385361</v>
       </c>
       <c r="H5" t="n">
-        <v>1.162084412</v>
+        <v>0.001162084412</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4444,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L5" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M5" t="n">
         <v>1.87497738721372</v>
@@ -4456,7 +4456,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P5" t="n">
         <v>1.24998492480915</v>
@@ -4479,16 +4479,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.439178807</v>
+        <v>0.001439178807</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.4916986759957</v>
+        <v>0.0154916986759957</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8050944515</v>
+        <v>0.0018050944515</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L6" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M6" t="n">
         <v>1.87497738721372</v>
@@ -4509,7 +4509,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P6" t="n">
         <v>1.24998492480915</v>
@@ -4532,16 +4532,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>2.171010096</v>
+        <v>0.002171010096</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>23.3693228848224</v>
+        <v>0.0233693228848224</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6353789665</v>
+        <v>0.0026353789665</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L7" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M7" t="n">
         <v>1.87497738721372</v>
@@ -4562,7 +4562,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P7" t="n">
         <v>1.24998492480915</v>
@@ -4585,16 +4585,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>3.099747837</v>
+        <v>0.003099747837</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>33.3664998600646</v>
+        <v>0.0333664998600646</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3601913335</v>
+        <v>0.0043601913335</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L8" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M8" t="n">
         <v>1.87497738721372</v>
@@ -4615,7 +4615,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P8" t="n">
         <v>1.24998492480915</v>
@@ -4638,28 +4638,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>5.62063483</v>
+        <v>0.00562063483</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>60.5019895586652</v>
+        <v>0.0605019895586652</v>
       </c>
       <c r="H9" t="n">
-        <v>2.810317415</v>
+        <v>0.002810317415</v>
       </c>
       <c r="I9" t="n">
-        <v>30.2509947793326</v>
+        <v>0.0302509947793326</v>
       </c>
       <c r="J9" t="n">
-        <v>242.007958234661</v>
+        <v>0.242007958234661</v>
       </c>
       <c r="K9" t="n">
-        <v>152.470498043894</v>
+        <v>0.152470498043894</v>
       </c>
       <c r="L9" t="n">
-        <v>285.878736049516</v>
+        <v>0.285878736049516</v>
       </c>
       <c r="M9" t="n">
         <v>1.87497738721372</v>
@@ -4668,7 +4668,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>190.58582403301</v>
+        <v>0.19058582403301</v>
       </c>
       <c r="P9" t="n">
         <v>1.24998492480915</v>
@@ -4758,28 +4758,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.050667895</v>
+        <v>0.000050667895</v>
       </c>
       <c r="F2" t="n">
         <v>-62.43272335845</v>
       </c>
       <c r="G2" t="n">
-        <v>0.545402529601722</v>
+        <v>0.000545402529601722</v>
       </c>
       <c r="H2" t="n">
-        <v>0.384156126808333</v>
+        <v>0.000384156126808333</v>
       </c>
       <c r="I2" t="n">
-        <v>-23.9839131914783</v>
+        <v>-0.0239839131914783</v>
       </c>
       <c r="J2" t="n">
-        <v>-95.9356527659132</v>
+        <v>-0.0959356527659132</v>
       </c>
       <c r="K2" t="n">
-        <v>109.995810623538</v>
+        <v>0.109995810623538</v>
       </c>
       <c r="L2" t="n">
-        <v>240.245914892573</v>
+        <v>0.240245914892573</v>
       </c>
       <c r="M2" t="n">
         <v>2.18413695513202</v>
@@ -4788,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>80.0819716308576</v>
+        <v>0.0800819716308575</v>
       </c>
       <c r="P2" t="n">
         <v>0.728045651710675</v>
@@ -4811,28 +4811,28 @@
         <v>73.1969860064586</v>
       </c>
       <c r="E3" t="n">
-        <v>0.717644358616667</v>
+        <v>0.000717644358616667</v>
       </c>
       <c r="F3" t="n">
         <v>30.1399354144241</v>
       </c>
       <c r="G3" t="n">
-        <v>52.5294040752781</v>
+        <v>0.0525294040752781</v>
       </c>
       <c r="H3" t="n">
-        <v>0.947147010225</v>
+        <v>0.000947147010225</v>
       </c>
       <c r="I3" t="n">
-        <v>28.5469497161464</v>
+        <v>0.0285469497161464</v>
       </c>
       <c r="J3" t="n">
-        <v>114.187798864586</v>
+        <v>0.114187798864586</v>
       </c>
       <c r="K3" t="n">
-        <v>109.995810623538</v>
+        <v>0.109995810623538</v>
       </c>
       <c r="L3" t="n">
-        <v>240.245914892573</v>
+        <v>0.240245914892573</v>
       </c>
       <c r="M3" t="n">
         <v>2.18413695513202</v>
@@ -4841,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>80.0819716308576</v>
+        <v>0.0800819716308575</v>
       </c>
       <c r="P3" t="n">
         <v>0.728045651710675</v>
@@ -4864,28 +4864,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E4" t="n">
-        <v>1.17664966183333</v>
+        <v>0.00117664966183333</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>50.663064018658</v>
+        <v>0.050663064018658</v>
       </c>
       <c r="H4" t="n">
-        <v>0.879006143916667</v>
+        <v>0.000879006143916667</v>
       </c>
       <c r="I4" t="n">
-        <v>28.3855590069968</v>
+        <v>0.0283855590069968</v>
       </c>
       <c r="J4" t="n">
-        <v>113.542236027987</v>
+        <v>0.113542236027987</v>
       </c>
       <c r="K4" t="n">
-        <v>109.995810623538</v>
+        <v>0.109995810623538</v>
       </c>
       <c r="L4" t="n">
-        <v>240.245914892573</v>
+        <v>0.240245914892573</v>
       </c>
       <c r="M4" t="n">
         <v>2.18413695513202</v>
@@ -4894,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>80.0819716308576</v>
+        <v>0.0800819716308575</v>
       </c>
       <c r="P4" t="n">
         <v>0.728045651710675</v>
@@ -4917,28 +4917,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.581362626</v>
+        <v>0.000581362626</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>6.25794</v>
+        <v>0.00625794</v>
       </c>
       <c r="H5" t="n">
-        <v>0.290681313</v>
+        <v>0.000290681313</v>
       </c>
       <c r="I5" t="n">
-        <v>3.12897</v>
+        <v>0.00312897</v>
       </c>
       <c r="J5" t="n">
-        <v>12.51588</v>
+        <v>0.01251588</v>
       </c>
       <c r="K5" t="n">
-        <v>109.995810623538</v>
+        <v>0.109995810623538</v>
       </c>
       <c r="L5" t="n">
-        <v>240.245914892573</v>
+        <v>0.240245914892573</v>
       </c>
       <c r="M5" t="n">
         <v>2.18413695513202</v>
@@ -4947,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>80.0819716308576</v>
+        <v>0.0800819716308575</v>
       </c>
       <c r="P5" t="n">
         <v>0.728045651710675</v>
@@ -5037,28 +5037,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.481059623</v>
+        <v>0.000481059623</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>5.178252131324</v>
+        <v>0.005178252131324</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1029432215</v>
+        <v>0.0011029432215</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.8723705220667</v>
+        <v>-0.0118723705220667</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.7447410441335</v>
+        <v>-0.0237447410441335</v>
       </c>
       <c r="K2" t="n">
-        <v>42.311229956943</v>
+        <v>0.042311229956943</v>
       </c>
       <c r="L2" t="n">
-        <v>37.132977825619</v>
+        <v>0.037132977825619</v>
       </c>
       <c r="M2" t="n">
         <v>0.87761518309457</v>
@@ -5067,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>6.18882963760316</v>
+        <v>0.00618882963760316</v>
       </c>
       <c r="P2" t="n">
         <v>0.146269197182428</v>
@@ -5090,28 +5090,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>1.72482682</v>
+        <v>0.00172482682</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>37.132977825619</v>
+        <v>0.037132977825619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.86241341</v>
+        <v>0.00086241341</v>
       </c>
       <c r="I3" t="n">
-        <v>18.5664889128095</v>
+        <v>0.0185664889128095</v>
       </c>
       <c r="J3" t="n">
-        <v>37.132977825619</v>
+        <v>0.037132977825619</v>
       </c>
       <c r="K3" t="n">
-        <v>42.311229956943</v>
+        <v>0.042311229956943</v>
       </c>
       <c r="L3" t="n">
-        <v>37.132977825619</v>
+        <v>0.037132977825619</v>
       </c>
       <c r="M3" t="n">
         <v>0.87761518309457</v>
@@ -5120,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>6.18882963760316</v>
+        <v>0.00618882963760316</v>
       </c>
       <c r="P3" t="n">
         <v>0.146269197182428</v>
@@ -5210,28 +5210,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.072753865</v>
+        <v>0.000072753865</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.783141711517761</v>
+        <v>0.000783141711517761</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1899082685</v>
+        <v>0.0001899082685</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.04422248116254</v>
+        <v>-0.00204422248116254</v>
       </c>
       <c r="J2" t="n">
-        <v>-28.6191147362756</v>
+        <v>-0.0286191147362756</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L2" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M2" t="n">
         <v>3.99176086387219</v>
@@ -5240,7 +5240,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O2" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P2" t="n">
         <v>4.65705434118422</v>
@@ -5263,28 +5263,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.307062672</v>
+        <v>0.000307062672</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>6.61060650161464</v>
+        <v>0.00661060650161464</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6338548735</v>
+        <v>0.0006338548735</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.82298033907428</v>
+        <v>-0.00682298033907428</v>
       </c>
       <c r="J3" t="n">
-        <v>-95.5217247470399</v>
+        <v>-0.0955217247470399</v>
       </c>
       <c r="K3" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L3" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M3" t="n">
         <v>3.99176086387219</v>
@@ -5293,7 +5293,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O3" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P3" t="n">
         <v>4.65705434118422</v>
@@ -5316,28 +5316,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.960647075</v>
+        <v>0.000960647075</v>
       </c>
       <c r="F4" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>31.0219722820237</v>
+        <v>0.0310219722820237</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3600748675</v>
+        <v>0.0013600748675</v>
       </c>
       <c r="I4" t="n">
-        <v>-14.6402030947255</v>
+        <v>-0.0146402030947255</v>
       </c>
       <c r="J4" t="n">
-        <v>-204.962843326157</v>
+        <v>-0.204962843326157</v>
       </c>
       <c r="K4" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L4" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M4" t="n">
         <v>3.99176086387219</v>
@@ -5346,7 +5346,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O4" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P4" t="n">
         <v>4.65705434118422</v>
@@ -5369,28 +5369,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E5" t="n">
-        <v>1.75950266</v>
+        <v>0.00175950266</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>75.7589950484392</v>
+        <v>0.0757589950484392</v>
       </c>
       <c r="H5" t="n">
-        <v>1.7269551155</v>
+        <v>0.0017269551155</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1787968891281</v>
+        <v>0.0371787968891281</v>
       </c>
       <c r="J5" t="n">
-        <v>520.503156447793</v>
+        <v>0.520503156447793</v>
       </c>
       <c r="K5" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L5" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M5" t="n">
         <v>3.99176086387219</v>
@@ -5399,7 +5399,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O5" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P5" t="n">
         <v>4.65705434118422</v>
@@ -5422,28 +5422,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>1.694407571</v>
+        <v>0.001694407571</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>36.4780962540366</v>
+        <v>0.0364780962540366</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5957398905</v>
+        <v>0.0015957398905</v>
       </c>
       <c r="I6" t="n">
-        <v>17.1769632992465</v>
+        <v>0.0171769632992465</v>
       </c>
       <c r="J6" t="n">
-        <v>240.477486189451</v>
+        <v>0.240477486189451</v>
       </c>
       <c r="K6" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L6" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M6" t="n">
         <v>3.99176086387219</v>
@@ -5452,7 +5452,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O6" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P6" t="n">
         <v>4.65705434118422</v>
@@ -5475,16 +5475,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.49707221</v>
+        <v>0.00149707221</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>16.1148784714747</v>
+        <v>0.0161148784714747</v>
       </c>
       <c r="H7" t="n">
-        <v>1.378670012</v>
+        <v>0.001378670012</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5493,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L7" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M7" t="n">
         <v>3.99176086387219</v>
@@ -5505,7 +5505,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O7" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P7" t="n">
         <v>4.65705434118422</v>
@@ -5528,28 +5528,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>1.260267814</v>
+        <v>0.001260267814</v>
       </c>
       <c r="F8" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>13.5658537567277</v>
+        <v>0.0135658537567277</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8386878395</v>
+        <v>0.0028386878395</v>
       </c>
       <c r="I8" t="n">
-        <v>-30.5563814800861</v>
+        <v>-0.0305563814800861</v>
       </c>
       <c r="J8" t="n">
-        <v>-427.789340721206</v>
+        <v>-0.427789340721206</v>
       </c>
       <c r="K8" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L8" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M8" t="n">
         <v>3.99176086387219</v>
@@ -5558,7 +5558,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O8" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P8" t="n">
         <v>4.65705434118422</v>
@@ -5581,28 +5581,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>4.417107865</v>
+        <v>0.004417107865</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>95.0938184068891</v>
+        <v>0.0950938184068891</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5383155995</v>
+        <v>0.0035383155995</v>
       </c>
       <c r="I9" t="n">
-        <v>38.0873584445641</v>
+        <v>0.0380873584445641</v>
       </c>
       <c r="J9" t="n">
-        <v>533.223018223897</v>
+        <v>0.533223018223897</v>
       </c>
       <c r="K9" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L9" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M9" t="n">
         <v>3.99176086387219</v>
@@ -5611,7 +5611,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O9" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P9" t="n">
         <v>4.65705434118422</v>
@@ -5634,16 +5634,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>2.659523334</v>
+        <v>0.002659523334</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>28.6278076856835</v>
+        <v>0.0286278076856835</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9666393865</v>
+        <v>0.0029666393865</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L10" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M10" t="n">
         <v>3.99176086387219</v>
@@ -5664,7 +5664,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O10" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P10" t="n">
         <v>4.65705434118422</v>
@@ -5687,28 +5687,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>3.273755439</v>
+        <v>0.003273755439</v>
       </c>
       <c r="F11" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G11" t="n">
-        <v>35.2395633907427</v>
+        <v>0.0352395633907427</v>
       </c>
       <c r="H11" t="n">
-        <v>8.2056609965</v>
+        <v>0.0082056609965</v>
       </c>
       <c r="I11" t="n">
-        <v>-88.3278901668461</v>
+        <v>-0.0883278901668461</v>
       </c>
       <c r="J11" t="n">
-        <v>-1236.59046233585</v>
+        <v>-1.23659046233585</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L11" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M11" t="n">
         <v>3.99176086387219</v>
@@ -5717,7 +5717,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O11" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P11" t="n">
         <v>4.65705434118422</v>
@@ -5740,28 +5740,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E12" t="n">
-        <v>13.137566554</v>
+        <v>0.013137566554</v>
       </c>
       <c r="F12" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>282.832433885899</v>
+        <v>0.282832433885899</v>
       </c>
       <c r="H12" t="n">
-        <v>9.3749583965</v>
+        <v>0.0093749583965</v>
       </c>
       <c r="I12" t="n">
-        <v>100.91451449408</v>
+        <v>0.10091451449408</v>
       </c>
       <c r="J12" t="n">
-        <v>1412.80320291712</v>
+        <v>1.41280320291712</v>
       </c>
       <c r="K12" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L12" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M12" t="n">
         <v>3.99176086387219</v>
@@ -5770,7 +5770,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O12" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P12" t="n">
         <v>4.65705434118422</v>
@@ -5793,16 +5793,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E13" t="n">
-        <v>5.612350239</v>
+        <v>0.005612350239</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.4128120452099</v>
+        <v>0.0604128120452099</v>
       </c>
       <c r="H13" t="n">
-        <v>10.8281700345</v>
+        <v>0.0108281700345</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L13" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M13" t="n">
         <v>3.99176086387219</v>
@@ -5823,7 +5823,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O13" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P13" t="n">
         <v>4.65705434118422</v>
@@ -5846,16 +5846,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>16.04398983</v>
+        <v>0.01604398983</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>172.701720452099</v>
+        <v>0.172701720452099</v>
       </c>
       <c r="H14" t="n">
-        <v>18.93739419</v>
+        <v>0.01893739419</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L14" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M14" t="n">
         <v>3.99176086387219</v>
@@ -5876,7 +5876,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O14" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P14" t="n">
         <v>4.65705434118422</v>
@@ -5899,28 +5899,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E15" t="n">
-        <v>21.83079855</v>
+        <v>0.02183079855</v>
       </c>
       <c r="F15" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G15" t="n">
-        <v>234.992449407966</v>
+        <v>0.234992449407966</v>
       </c>
       <c r="H15" t="n">
-        <v>10.915399275</v>
+        <v>0.010915399275</v>
       </c>
       <c r="I15" t="n">
-        <v>117.496224703983</v>
+        <v>0.117496224703983</v>
       </c>
       <c r="J15" t="n">
-        <v>1644.94714585576</v>
+        <v>1.64494714585576</v>
       </c>
       <c r="K15" t="n">
-        <v>1090.23414930032</v>
+        <v>1.09023414930032</v>
       </c>
       <c r="L15" t="n">
-        <v>4351.95400963402</v>
+        <v>4.35195400963402</v>
       </c>
       <c r="M15" t="n">
         <v>3.99176086387219</v>
@@ -5929,7 +5929,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O15" t="n">
-        <v>5077.27967790635</v>
+        <v>5.07727967790635</v>
       </c>
       <c r="P15" t="n">
         <v>4.65705434118422</v>
@@ -6019,28 +6019,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>2.525521225</v>
+        <v>0.002525521225</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>27.1853737890205</v>
+        <v>0.0271853737890205</v>
       </c>
       <c r="H2" t="n">
-        <v>1.2627606125</v>
+        <v>0.0012627606125</v>
       </c>
       <c r="I2" t="n">
-        <v>13.5926868945102</v>
+        <v>0.0135926868945102</v>
       </c>
       <c r="J2" t="n">
-        <v>13.5926868945102</v>
+        <v>0.0135926868945102</v>
       </c>
       <c r="K2" t="n">
-        <v>27.1853737890205</v>
+        <v>0.0271853737890205</v>
       </c>
       <c r="L2" t="n">
-        <v>13.5926868945102</v>
+        <v>0.0135926868945102</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6049,7 +6049,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13272390787585</v>
+        <v>0.00113272390787585</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -6139,28 +6139,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.126231495</v>
+        <v>0.000126231495</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>2.71757793326157</v>
+        <v>0.00271757793326157</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1558325185</v>
+        <v>0.0001558325185</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67742215823466</v>
+        <v>0.00167742215823466</v>
       </c>
       <c r="J2" t="n">
-        <v>8.38711079117331</v>
+        <v>0.0083871107911733</v>
       </c>
       <c r="K2" t="n">
-        <v>230.983214095802</v>
+        <v>0.230983214095802</v>
       </c>
       <c r="L2" t="n">
-        <v>503.541794389128</v>
+        <v>0.503541794389128</v>
       </c>
       <c r="M2" t="n">
         <v>2.17999301966714</v>
@@ -6169,7 +6169,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>209.80908099547</v>
+        <v>0.20980908099547</v>
       </c>
       <c r="P2" t="n">
         <v>0.908330424861307</v>
@@ -6192,28 +6192,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.185433542</v>
+        <v>0.000185433542</v>
       </c>
       <c r="F3" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>1.99605534983854</v>
+        <v>0.00199605534983854</v>
       </c>
       <c r="H3" t="n">
-        <v>0.690256404</v>
+        <v>0.000690256404</v>
       </c>
       <c r="I3" t="n">
-        <v>-14.8602024542519</v>
+        <v>-0.0148602024542519</v>
       </c>
       <c r="J3" t="n">
-        <v>-74.3010122712594</v>
+        <v>-0.0743010122712594</v>
       </c>
       <c r="K3" t="n">
-        <v>230.983214095802</v>
+        <v>0.230983214095802</v>
       </c>
       <c r="L3" t="n">
-        <v>503.541794389128</v>
+        <v>0.503541794389128</v>
       </c>
       <c r="M3" t="n">
         <v>2.17999301966714</v>
@@ -6222,7 +6222,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>209.80908099547</v>
+        <v>0.20980908099547</v>
       </c>
       <c r="P3" t="n">
         <v>0.908330424861307</v>
@@ -6245,28 +6245,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>1.195079266</v>
+        <v>0.001195079266</v>
       </c>
       <c r="F4" t="n">
         <v>-18.8374596340151</v>
       </c>
       <c r="G4" t="n">
-        <v>38.59244131324</v>
+        <v>0.03859244131324</v>
       </c>
       <c r="H4" t="n">
-        <v>2.309626854</v>
+        <v>0.002309626854</v>
       </c>
       <c r="I4" t="n">
-        <v>-43.5075026318622</v>
+        <v>-0.0435075026318622</v>
       </c>
       <c r="J4" t="n">
-        <v>-217.537513159311</v>
+        <v>-0.217537513159311</v>
       </c>
       <c r="K4" t="n">
-        <v>230.983214095802</v>
+        <v>0.230983214095802</v>
       </c>
       <c r="L4" t="n">
-        <v>503.541794389128</v>
+        <v>0.503541794389128</v>
       </c>
       <c r="M4" t="n">
         <v>2.17999301966714</v>
@@ -6275,7 +6275,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>209.80908099547</v>
+        <v>0.20980908099547</v>
       </c>
       <c r="P4" t="n">
         <v>0.908330424861307</v>
@@ -6298,28 +6298,28 @@
         <v>51.1302475780409</v>
       </c>
       <c r="E5" t="n">
-        <v>3.424174442</v>
+        <v>0.003424174442</v>
       </c>
       <c r="F5" t="n">
         <v>40.3659849300323</v>
       </c>
       <c r="G5" t="n">
-        <v>175.07888696986</v>
+        <v>0.17507888696986</v>
       </c>
       <c r="H5" t="n">
-        <v>2.297276051</v>
+        <v>0.002297276051</v>
       </c>
       <c r="I5" t="n">
-        <v>92.7318104547901</v>
+        <v>0.0927318104547901</v>
       </c>
       <c r="J5" t="n">
-        <v>463.65905227395</v>
+        <v>0.46365905227395</v>
       </c>
       <c r="K5" t="n">
-        <v>230.983214095802</v>
+        <v>0.230983214095802</v>
       </c>
       <c r="L5" t="n">
-        <v>503.541794389128</v>
+        <v>0.503541794389128</v>
       </c>
       <c r="M5" t="n">
         <v>2.17999301966714</v>
@@ -6328,7 +6328,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>209.80908099547</v>
+        <v>0.20980908099547</v>
       </c>
       <c r="P5" t="n">
         <v>0.908330424861307</v>
@@ -6351,28 +6351,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.17037766</v>
+        <v>0.00117037766</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>12.5982525296017</v>
+        <v>0.0125982525296017</v>
       </c>
       <c r="H6" t="n">
-        <v>0.58518883</v>
+        <v>0.00058518883</v>
       </c>
       <c r="I6" t="n">
-        <v>6.29912626480086</v>
+        <v>0.00629912626480086</v>
       </c>
       <c r="J6" t="n">
-        <v>31.4956313240043</v>
+        <v>0.0314956313240043</v>
       </c>
       <c r="K6" t="n">
-        <v>230.983214095802</v>
+        <v>0.230983214095802</v>
       </c>
       <c r="L6" t="n">
-        <v>503.541794389128</v>
+        <v>0.503541794389128</v>
       </c>
       <c r="M6" t="n">
         <v>2.17999301966714</v>
@@ -6381,7 +6381,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>209.80908099547</v>
+        <v>0.20980908099547</v>
       </c>
       <c r="P6" t="n">
         <v>0.908330424861307</v>
@@ -6471,28 +6471,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.012</v>
+        <v>0.000012</v>
       </c>
       <c r="F2" t="n">
         <v>-68.1736634373879</v>
       </c>
       <c r="G2" t="n">
-        <v>0.516684607104413</v>
+        <v>0.000516684607104413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.10144799875</v>
+        <v>0.00010144799875</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.91608172317905</v>
+        <v>-0.00691608172317905</v>
       </c>
       <c r="J2" t="n">
-        <v>-48.4125720622533</v>
+        <v>-0.0484125720622533</v>
       </c>
       <c r="K2" t="n">
-        <v>1391.72612621064</v>
+        <v>1.39172612621064</v>
       </c>
       <c r="L2" t="n">
-        <v>3853.58157398383</v>
+        <v>3.85358157398383</v>
       </c>
       <c r="M2" t="n">
         <v>2.76892234859187</v>
@@ -6501,7 +6501,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>2247.9225848239</v>
+        <v>2.2479225848239</v>
       </c>
       <c r="P2" t="n">
         <v>1.61520470334526</v>
@@ -6524,28 +6524,28 @@
         <v>111.230714029422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1908959975</v>
+        <v>0.0001908959975</v>
       </c>
       <c r="F3" t="n">
         <v>-146.752780767851</v>
       </c>
       <c r="G3" t="n">
-        <v>21.2334981072838</v>
+        <v>0.0212334981072838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.609354369144874</v>
+        <v>0.000609354369144874</v>
       </c>
       <c r="I3" t="n">
-        <v>-89.4244481450497</v>
+        <v>-0.0894244481450497</v>
       </c>
       <c r="J3" t="n">
-        <v>-625.971137015348</v>
+        <v>-0.625971137015348</v>
       </c>
       <c r="K3" t="n">
-        <v>1391.72612621064</v>
+        <v>1.39172612621064</v>
       </c>
       <c r="L3" t="n">
-        <v>3853.58157398383</v>
+        <v>3.85358157398383</v>
       </c>
       <c r="M3" t="n">
         <v>2.76892234859187</v>
@@ -6554,7 +6554,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>2247.9225848239</v>
+        <v>2.2479225848239</v>
       </c>
       <c r="P3" t="n">
         <v>1.61520470334526</v>
@@ -6577,28 +6577,28 @@
         <v>257.983494797273</v>
       </c>
       <c r="E4" t="n">
-        <v>1.02781274078975</v>
+        <v>0.00102781274078975</v>
       </c>
       <c r="F4" t="n">
         <v>40.5453893074991</v>
       </c>
       <c r="G4" t="n">
-        <v>265.158722866103</v>
+        <v>0.265158722866103</v>
       </c>
       <c r="H4" t="n">
-        <v>1.42751592630554</v>
+        <v>0.00142751592630554</v>
       </c>
       <c r="I4" t="n">
-        <v>57.8791889747135</v>
+        <v>0.0578791889747135</v>
       </c>
       <c r="J4" t="n">
-        <v>405.154322822995</v>
+        <v>0.405154322822995</v>
       </c>
       <c r="K4" t="n">
-        <v>1391.72612621064</v>
+        <v>1.39172612621064</v>
       </c>
       <c r="L4" t="n">
-        <v>3853.58157398383</v>
+        <v>3.85358157398383</v>
       </c>
       <c r="M4" t="n">
         <v>2.76892234859187</v>
@@ -6607,7 +6607,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>2247.9225848239</v>
+        <v>2.2479225848239</v>
       </c>
       <c r="P4" t="n">
         <v>1.61520470334526</v>
@@ -6630,28 +6630,28 @@
         <v>217.438105489774</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82721911182134</v>
+        <v>0.00182721911182134</v>
       </c>
       <c r="F5" t="n">
         <v>61.3562970936491</v>
       </c>
       <c r="G5" t="n">
-        <v>397.307061989139</v>
+        <v>0.397307061989139</v>
       </c>
       <c r="H5" t="n">
-        <v>2.428893031604</v>
+        <v>0.002428893031604</v>
       </c>
       <c r="I5" t="n">
-        <v>149.027882455789</v>
+        <v>0.149027882455789</v>
       </c>
       <c r="J5" t="n">
-        <v>1043.19517719052</v>
+        <v>1.04319517719052</v>
       </c>
       <c r="K5" t="n">
-        <v>1391.72612621064</v>
+        <v>1.39172612621064</v>
       </c>
       <c r="L5" t="n">
-        <v>3853.58157398383</v>
+        <v>3.85358157398383</v>
       </c>
       <c r="M5" t="n">
         <v>2.76892234859187</v>
@@ -6660,7 +6660,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>2247.9225848239</v>
+        <v>2.2479225848239</v>
       </c>
       <c r="P5" t="n">
         <v>1.61520470334526</v>
@@ -6683,28 +6683,28 @@
         <v>156.081808396125</v>
       </c>
       <c r="E6" t="n">
-        <v>3.03056695138667</v>
+        <v>0.00303056695138667</v>
       </c>
       <c r="F6" t="n">
         <v>76.4262648008611</v>
       </c>
       <c r="G6" t="n">
-        <v>473.016370237962</v>
+        <v>0.473016370237962</v>
       </c>
       <c r="H6" t="n">
-        <v>2.90096187622667</v>
+        <v>0.00290096187622667</v>
       </c>
       <c r="I6" t="n">
-        <v>221.709680529702</v>
+        <v>0.221709680529702</v>
       </c>
       <c r="J6" t="n">
-        <v>1551.96776370792</v>
+        <v>1.55196776370792</v>
       </c>
       <c r="K6" t="n">
-        <v>1391.72612621064</v>
+        <v>1.39172612621064</v>
       </c>
       <c r="L6" t="n">
-        <v>3853.58157398383</v>
+        <v>3.85358157398383</v>
       </c>
       <c r="M6" t="n">
         <v>2.76892234859187</v>
@@ -6713,7 +6713,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O6" t="n">
-        <v>2247.9225848239</v>
+        <v>2.2479225848239</v>
       </c>
       <c r="P6" t="n">
         <v>1.61520470334526</v>
@@ -6736,28 +6736,28 @@
         <v>79.6555435952637</v>
       </c>
       <c r="E7" t="n">
-        <v>2.77135680106667</v>
+        <v>0.00277135680106667</v>
       </c>
       <c r="F7" t="n">
         <v>63.5091496232508</v>
       </c>
       <c r="G7" t="n">
-        <v>220.753932485396</v>
+        <v>0.220753932485397</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81115593878333</v>
+        <v>0.00181115593878333</v>
       </c>
       <c r="I7" t="n">
-        <v>115.02497350723</v>
+        <v>0.11502497350723</v>
       </c>
       <c r="J7" t="n">
-        <v>805.17481455061</v>
+        <v>0.80517481455061</v>
       </c>
       <c r="K7" t="n">
-        <v>1391.72612621064</v>
+        <v>1.39172612621064</v>
       </c>
       <c r="L7" t="n">
-        <v>3853.58157398383</v>
+        <v>3.85358157398383</v>
       </c>
       <c r="M7" t="n">
         <v>2.76892234859187</v>
@@ -6766,7 +6766,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O7" t="n">
-        <v>2247.9225848239</v>
+        <v>2.2479225848239</v>
       </c>
       <c r="P7" t="n">
         <v>1.61520470334526</v>
@@ -6789,28 +6789,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8509550765</v>
+        <v>0.0008509550765</v>
       </c>
       <c r="F8" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G8" t="n">
-        <v>13.7398559176534</v>
+        <v>0.0137398559176534</v>
       </c>
       <c r="H8" t="n">
-        <v>0.42547753825</v>
+        <v>0.00042547753825</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8699279588267</v>
+        <v>0.0068699279588267</v>
       </c>
       <c r="J8" t="n">
-        <v>48.0894957117869</v>
+        <v>0.0480894957117869</v>
       </c>
       <c r="K8" t="n">
-        <v>1391.72612621064</v>
+        <v>1.39172612621064</v>
       </c>
       <c r="L8" t="n">
-        <v>3853.58157398383</v>
+        <v>3.85358157398383</v>
       </c>
       <c r="M8" t="n">
         <v>2.76892234859187</v>
@@ -6819,7 +6819,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O8" t="n">
-        <v>2247.9225848239</v>
+        <v>2.2479225848239</v>
       </c>
       <c r="P8" t="n">
         <v>1.61520470334526</v>
@@ -6909,28 +6909,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.35864851</v>
+        <v>0.00035864851</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.86058675995694</v>
+        <v>0.00386058675995694</v>
       </c>
       <c r="H2" t="n">
-        <v>0.179324255</v>
+        <v>0.000179324255</v>
       </c>
       <c r="I2" t="n">
-        <v>1.93029337997847</v>
+        <v>0.00193029337997847</v>
       </c>
       <c r="J2" t="n">
-        <v>1.93029337997847</v>
+        <v>0.00193029337997847</v>
       </c>
       <c r="K2" t="n">
-        <v>3.86058675995694</v>
+        <v>0.00386058675995694</v>
       </c>
       <c r="L2" t="n">
-        <v>1.93029337997847</v>
+        <v>0.00193029337997847</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -6939,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.160857781664873</v>
+        <v>0.000160857781664873</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -7029,28 +7029,28 @@
         <v>62.43272335845</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008301097213</v>
+        <v>0.000008301097213</v>
       </c>
       <c r="F2" t="n">
         <v>30.1399354144241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.518260105870829</v>
+        <v>0.000518260105870829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0111007725015</v>
+        <v>0.0000111007725015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.334576566245425</v>
+        <v>0.000334576566245425</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3532250599268</v>
+        <v>0.0053532250599268</v>
       </c>
       <c r="K2" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L2" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M2" t="n">
         <v>2.41874712698349</v>
@@ -7059,7 +7059,7 @@
         <v>0.75</v>
       </c>
       <c r="O2" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P2" t="n">
         <v>3.22499616931132</v>
@@ -7082,16 +7082,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01390044779</v>
+        <v>0.00001390044779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.448884212809473</v>
+        <v>0.000448884212809473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.024561904145</v>
+        <v>0.000024561904145</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -7100,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L3" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M3" t="n">
         <v>2.41874712698349</v>
@@ -7112,7 +7112,7 @@
         <v>0.75</v>
       </c>
       <c r="O3" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P3" t="n">
         <v>3.22499616931132</v>
@@ -7135,16 +7135,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0352233605</v>
+        <v>0.0000352233605</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.13746051130248</v>
+        <v>0.00113746051130248</v>
       </c>
       <c r="H4" t="n">
-        <v>0.053837144015</v>
+        <v>0.000053837144015</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L4" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M4" t="n">
         <v>2.41874712698349</v>
@@ -7165,7 +7165,7 @@
         <v>0.75</v>
       </c>
       <c r="O4" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P4" t="n">
         <v>3.22499616931132</v>
@@ -7188,16 +7188,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07245092753</v>
+        <v>0.00007245092753</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.33964243907427</v>
+        <v>0.00233964243907427</v>
       </c>
       <c r="H5" t="n">
-        <v>0.101527653025</v>
+        <v>0.000101527653025</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -7206,10 +7206,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L5" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M5" t="n">
         <v>2.41874712698349</v>
@@ -7218,7 +7218,7 @@
         <v>0.75</v>
       </c>
       <c r="O5" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P5" t="n">
         <v>3.22499616931132</v>
@@ -7241,28 +7241,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E6" t="n">
-        <v>0.13060437852</v>
+        <v>0.00013060437852</v>
       </c>
       <c r="F6" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G6" t="n">
-        <v>4.21757950010764</v>
+        <v>0.00421757950010764</v>
       </c>
       <c r="H6" t="n">
-        <v>0.12415650447</v>
+        <v>0.00012415650447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.668226611786867</v>
+        <v>0.000668226611786868</v>
       </c>
       <c r="J6" t="n">
-        <v>10.6916257885899</v>
+        <v>0.0106916257885899</v>
       </c>
       <c r="K6" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L6" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M6" t="n">
         <v>2.41874712698349</v>
@@ -7271,7 +7271,7 @@
         <v>0.75</v>
       </c>
       <c r="O6" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P6" t="n">
         <v>3.22499616931132</v>
@@ -7294,28 +7294,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11770863042</v>
+        <v>0.00011770863042</v>
       </c>
       <c r="F7" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G7" t="n">
-        <v>3.16761653444564</v>
+        <v>0.00316761653444564</v>
       </c>
       <c r="H7" t="n">
-        <v>0.22093214216</v>
+        <v>0.00022093214216</v>
       </c>
       <c r="I7" t="n">
-        <v>3.56725740839613</v>
+        <v>0.00356725740839613</v>
       </c>
       <c r="J7" t="n">
-        <v>57.076118534338</v>
+        <v>0.057076118534338</v>
       </c>
       <c r="K7" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L7" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M7" t="n">
         <v>2.41874712698349</v>
@@ -7324,7 +7324,7 @@
         <v>0.75</v>
       </c>
       <c r="O7" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P7" t="n">
         <v>3.22499616931132</v>
@@ -7347,16 +7347,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3241556539</v>
+        <v>0.0003241556539</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.48929659741658</v>
+        <v>0.00348929659741658</v>
       </c>
       <c r="H8" t="n">
-        <v>0.38262665975</v>
+        <v>0.00038262665975</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7365,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L8" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M8" t="n">
         <v>2.41874712698349</v>
@@ -7377,7 +7377,7 @@
         <v>0.75</v>
       </c>
       <c r="O8" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P8" t="n">
         <v>3.22499616931132</v>
@@ -7400,28 +7400,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4410976656</v>
+        <v>0.0004410976656</v>
       </c>
       <c r="F9" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>4.74809112594187</v>
+        <v>0.00474809112594187</v>
       </c>
       <c r="H9" t="n">
-        <v>0.636824672065</v>
+        <v>0.000636824672065</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.85494803083961</v>
+        <v>-0.00685494803083961</v>
       </c>
       <c r="J9" t="n">
-        <v>-109.679168493434</v>
+        <v>-0.109679168493434</v>
       </c>
       <c r="K9" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L9" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M9" t="n">
         <v>2.41874712698349</v>
@@ -7430,7 +7430,7 @@
         <v>0.75</v>
       </c>
       <c r="O9" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P9" t="n">
         <v>3.22499616931132</v>
@@ -7453,16 +7453,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E10" t="n">
-        <v>0.83255167853</v>
+        <v>0.00083255167853</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.9236098714747</v>
+        <v>0.0179236098714747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.94521059105</v>
+        <v>0.00094521059105</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7471,10 +7471,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L10" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M10" t="n">
         <v>2.41874712698349</v>
@@ -7483,7 +7483,7 @@
         <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P10" t="n">
         <v>3.22499616931132</v>
@@ -7506,16 +7506,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E11" t="n">
-        <v>1.05786950357</v>
+        <v>0.00105786950357</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>22.7743703674919</v>
+        <v>0.0227743703674919</v>
       </c>
       <c r="H11" t="n">
-        <v>1.189998344535</v>
+        <v>0.001189998344535</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -7524,10 +7524,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L11" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M11" t="n">
         <v>2.41874712698349</v>
@@ -7536,7 +7536,7 @@
         <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P11" t="n">
         <v>3.22499616931132</v>
@@ -7559,16 +7559,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E12" t="n">
-        <v>1.3221271855</v>
+        <v>0.0013221271855</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>28.4634485575888</v>
+        <v>0.0284634485575888</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4754529218</v>
+        <v>0.0014754529218</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L12" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M12" t="n">
         <v>2.41874712698349</v>
@@ -7589,7 +7589,7 @@
         <v>0.75</v>
       </c>
       <c r="O12" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P12" t="n">
         <v>3.22499616931132</v>
@@ -7612,16 +7612,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E13" t="n">
-        <v>1.6287786581</v>
+        <v>0.0016287786581</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.0652025425188</v>
+        <v>0.0350652025425188</v>
       </c>
       <c r="H13" t="n">
-        <v>1.80505520635</v>
+        <v>0.00180505520635</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -7630,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L13" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M13" t="n">
         <v>2.41874712698349</v>
@@ -7642,7 +7642,7 @@
         <v>0.75</v>
       </c>
       <c r="O13" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P13" t="n">
         <v>3.22499616931132</v>
@@ -7665,28 +7665,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E14" t="n">
-        <v>1.9813317546</v>
+        <v>0.0019813317546</v>
       </c>
       <c r="F14" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>42.6551507987083</v>
+        <v>0.0426551507987083</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0989997683</v>
+        <v>0.0010989997683</v>
       </c>
       <c r="I14" t="n">
-        <v>11.8299221560818</v>
+        <v>0.0118299221560818</v>
       </c>
       <c r="J14" t="n">
-        <v>189.278754497309</v>
+        <v>0.189278754497309</v>
       </c>
       <c r="K14" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L14" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M14" t="n">
         <v>2.41874712698349</v>
@@ -7695,7 +7695,7 @@
         <v>0.75</v>
       </c>
       <c r="O14" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P14" t="n">
         <v>3.22499616931132</v>
@@ -7718,16 +7718,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.216667782</v>
+        <v>0.000216667782</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.33226891280947</v>
+        <v>0.00233226891280947</v>
       </c>
       <c r="H15" t="n">
-        <v>1.3985285615</v>
+        <v>0.0013985285615</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -7736,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L15" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M15" t="n">
         <v>2.41874712698349</v>
@@ -7748,7 +7748,7 @@
         <v>0.75</v>
       </c>
       <c r="O15" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P15" t="n">
         <v>3.22499616931132</v>
@@ -7771,16 +7771,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E16" t="n">
-        <v>2.580389341</v>
+        <v>0.002580389341</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.7759886006459</v>
+        <v>0.0277759886006459</v>
       </c>
       <c r="H16" t="n">
-        <v>3.073133182</v>
+        <v>0.003073133182</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -7789,10 +7789,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L16" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M16" t="n">
         <v>2.41874712698349</v>
@@ -7801,7 +7801,7 @@
         <v>0.75</v>
       </c>
       <c r="O16" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P16" t="n">
         <v>3.22499616931132</v>
@@ -7824,28 +7824,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E17" t="n">
-        <v>3.565877023</v>
+        <v>0.003565877023</v>
       </c>
       <c r="F17" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G17" t="n">
-        <v>38.384036846071</v>
+        <v>0.038384036846071</v>
       </c>
       <c r="H17" t="n">
-        <v>1.7829385115</v>
+        <v>0.0017829385115</v>
       </c>
       <c r="I17" t="n">
-        <v>19.1920184230355</v>
+        <v>0.0191920184230355</v>
       </c>
       <c r="J17" t="n">
-        <v>307.072294768568</v>
+        <v>0.307072294768568</v>
       </c>
       <c r="K17" t="n">
-        <v>235.440907524278</v>
+        <v>0.235440907524278</v>
       </c>
       <c r="L17" t="n">
-        <v>569.472018648732</v>
+        <v>0.569472018648732</v>
       </c>
       <c r="M17" t="n">
         <v>2.41874712698349</v>
@@ -7854,7 +7854,7 @@
         <v>0.75</v>
       </c>
       <c r="O17" t="n">
-        <v>759.296024864976</v>
+        <v>0.759296024864976</v>
       </c>
       <c r="P17" t="n">
         <v>3.22499616931132</v>
@@ -7944,28 +7944,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.113780644</v>
+        <v>0.000113780644</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44952947255113</v>
+        <v>0.00244952947255113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.144593195</v>
+        <v>0.000144593195</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55643912809473</v>
+        <v>0.00155643912809473</v>
       </c>
       <c r="J2" t="n">
-        <v>3.11287825618945</v>
+        <v>0.00311287825618945</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33764299246502</v>
+        <v>0.00433764299246502</v>
       </c>
       <c r="L2" t="n">
-        <v>5.00099177610334</v>
+        <v>0.00500099177610334</v>
       </c>
       <c r="M2" t="n">
         <v>1.15292839562653</v>
@@ -7974,7 +7974,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.833498629350556</v>
+        <v>0.000833498629350556</v>
       </c>
       <c r="P2" t="n">
         <v>0.192154732604421</v>
@@ -7997,28 +7997,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.175405746</v>
+        <v>0.000175405746</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88811351991389</v>
+        <v>0.00188811351991389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.087702873</v>
+        <v>0.000087702873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.944056759956943</v>
+        <v>0.000944056759956943</v>
       </c>
       <c r="J3" t="n">
-        <v>1.88811351991389</v>
+        <v>0.00188811351991389</v>
       </c>
       <c r="K3" t="n">
-        <v>4.33764299246502</v>
+        <v>0.00433764299246502</v>
       </c>
       <c r="L3" t="n">
-        <v>5.00099177610334</v>
+        <v>0.00500099177610334</v>
       </c>
       <c r="M3" t="n">
         <v>1.15292839562653</v>
@@ -8027,7 +8027,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.833498629350556</v>
+        <v>0.000833498629350556</v>
       </c>
       <c r="P3" t="n">
         <v>0.192154732604421</v>
@@ -8117,28 +8117,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.296246158</v>
+        <v>0.000296246158</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.18887145317546</v>
+        <v>0.00318887145317546</v>
       </c>
       <c r="H2" t="n">
-        <v>0.148123079</v>
+        <v>0.000148123079</v>
       </c>
       <c r="I2" t="n">
-        <v>1.59443572658773</v>
+        <v>0.00159443572658773</v>
       </c>
       <c r="J2" t="n">
-        <v>1.59443572658773</v>
+        <v>0.00159443572658773</v>
       </c>
       <c r="K2" t="n">
-        <v>3.18887145317546</v>
+        <v>0.00318887145317546</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59443572658773</v>
+        <v>0.00159443572658773</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -8147,7 +8147,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.132869643882311</v>
+        <v>0.000132869643882311</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -8237,28 +8237,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.105987054</v>
+        <v>0.000105987054</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.42261745963401</v>
+        <v>0.00342261745963402</v>
       </c>
       <c r="H2" t="n">
-        <v>0.109093372</v>
+        <v>0.000109093372</v>
       </c>
       <c r="I2" t="n">
-        <v>1.17430970936491</v>
+        <v>0.00117430970936491</v>
       </c>
       <c r="J2" t="n">
-        <v>5.87154854682454</v>
+        <v>0.00587154854682454</v>
       </c>
       <c r="K2" t="n">
-        <v>33.5280941442411</v>
+        <v>0.0335280941442411</v>
       </c>
       <c r="L2" t="n">
-        <v>65.1684037136706</v>
+        <v>0.0651684037136706</v>
       </c>
       <c r="M2" t="n">
         <v>1.94369544040618</v>
@@ -8267,7 +8267,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>27.1535015473628</v>
+        <v>0.0271535015473628</v>
       </c>
       <c r="P2" t="n">
         <v>0.809873100169242</v>
@@ -8290,28 +8290,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11219969</v>
+        <v>0.00011219969</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>2.41549386437029</v>
+        <v>0.00241549386437029</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1834610205</v>
+        <v>0.0001834610205</v>
       </c>
       <c r="I3" t="n">
-        <v>1.97482261033369</v>
+        <v>0.00197482261033369</v>
       </c>
       <c r="J3" t="n">
-        <v>9.87411305166846</v>
+        <v>0.00987411305166846</v>
       </c>
       <c r="K3" t="n">
-        <v>33.5280941442411</v>
+        <v>0.0335280941442411</v>
       </c>
       <c r="L3" t="n">
-        <v>65.1684037136706</v>
+        <v>0.0651684037136706</v>
       </c>
       <c r="M3" t="n">
         <v>1.94369544040618</v>
@@ -8320,7 +8320,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>27.1535015473628</v>
+        <v>0.0271535015473628</v>
       </c>
       <c r="P3" t="n">
         <v>0.809873100169242</v>
@@ -8343,16 +8343,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.254722351</v>
+        <v>0.000254722351</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74189828848224</v>
+        <v>0.00274189828848224</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3679251535</v>
+        <v>0.0003679251535</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8361,10 +8361,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.5280941442411</v>
+        <v>0.0335280941442411</v>
       </c>
       <c r="L4" t="n">
-        <v>65.1684037136706</v>
+        <v>0.0651684037136706</v>
       </c>
       <c r="M4" t="n">
         <v>1.94369544040618</v>
@@ -8373,7 +8373,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>27.1535015473628</v>
+        <v>0.0271535015473628</v>
       </c>
       <c r="P4" t="n">
         <v>0.809873100169242</v>
@@ -8396,16 +8396,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.481127956</v>
+        <v>0.000481127956</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.17898768568353</v>
+        <v>0.00517898768568353</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1588385265</v>
+        <v>0.0011588385265</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8414,10 +8414,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>33.5280941442411</v>
+        <v>0.0335280941442411</v>
       </c>
       <c r="L5" t="n">
-        <v>65.1684037136706</v>
+        <v>0.0651684037136706</v>
       </c>
       <c r="M5" t="n">
         <v>1.94369544040618</v>
@@ -8426,7 +8426,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>27.1535015473628</v>
+        <v>0.0271535015473628</v>
       </c>
       <c r="P5" t="n">
         <v>0.809873100169242</v>
@@ -8449,28 +8449,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.836549097</v>
+        <v>0.001836549097</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>19.769096846071</v>
+        <v>0.019769096846071</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9182745485</v>
+        <v>0.0009182745485</v>
       </c>
       <c r="I6" t="n">
-        <v>9.88454842303552</v>
+        <v>0.00988454842303552</v>
       </c>
       <c r="J6" t="n">
-        <v>49.4227421151776</v>
+        <v>0.0494227421151776</v>
       </c>
       <c r="K6" t="n">
-        <v>33.5280941442411</v>
+        <v>0.0335280941442411</v>
       </c>
       <c r="L6" t="n">
-        <v>65.1684037136706</v>
+        <v>0.0651684037136706</v>
       </c>
       <c r="M6" t="n">
         <v>1.94369544040618</v>
@@ -8479,7 +8479,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>27.1535015473628</v>
+        <v>0.0271535015473628</v>
       </c>
       <c r="P6" t="n">
         <v>0.809873100169242</v>
@@ -8569,16 +8569,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.76983332</v>
+        <v>0.00076983332</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.28668805166846</v>
+        <v>0.00828668805166846</v>
       </c>
       <c r="H2" t="n">
-        <v>4.148419411</v>
+        <v>0.004148419411</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8587,10 +8587,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>89.3093522282024</v>
+        <v>0.0893093522282024</v>
       </c>
       <c r="L2" t="n">
-        <v>81.0226641765339</v>
+        <v>0.0810226641765339</v>
       </c>
       <c r="M2" t="n">
         <v>0.907213658537189</v>
@@ -8599,7 +8599,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>13.5037773627557</v>
+        <v>0.0135037773627557</v>
       </c>
       <c r="P2" t="n">
         <v>0.151202276422865</v>
@@ -8622,28 +8622,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>7.527005502</v>
+        <v>0.007527005502</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>81.0226641765339</v>
+        <v>0.0810226641765339</v>
       </c>
       <c r="H3" t="n">
-        <v>3.763502751</v>
+        <v>0.003763502751</v>
       </c>
       <c r="I3" t="n">
-        <v>40.511332088267</v>
+        <v>0.040511332088267</v>
       </c>
       <c r="J3" t="n">
-        <v>81.0226641765339</v>
+        <v>0.0810226641765339</v>
       </c>
       <c r="K3" t="n">
-        <v>89.3093522282024</v>
+        <v>0.0893093522282024</v>
       </c>
       <c r="L3" t="n">
-        <v>81.0226641765339</v>
+        <v>0.0810226641765339</v>
       </c>
       <c r="M3" t="n">
         <v>0.907213658537189</v>
@@ -8652,7 +8652,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>13.5037773627557</v>
+        <v>0.0135037773627557</v>
       </c>
       <c r="P3" t="n">
         <v>0.151202276422865</v>
@@ -8742,28 +8742,28 @@
         <v>48.4391819160388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.352704958</v>
+        <v>0.000352704958</v>
       </c>
       <c r="F2" t="n">
         <v>48.4391819160388</v>
       </c>
       <c r="G2" t="n">
-        <v>17.0847396232508</v>
+        <v>0.0170847396232508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.176352479</v>
+        <v>0.000176352479</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5423698116254</v>
+        <v>0.0085423698116254</v>
       </c>
       <c r="J2" t="n">
-        <v>8.5423698116254</v>
+        <v>0.0085423698116254</v>
       </c>
       <c r="K2" t="n">
-        <v>17.0847396232508</v>
+        <v>0.0170847396232508</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5423698116254</v>
+        <v>0.0085423698116254</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -8772,7 +8772,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.711864150968784</v>
+        <v>0.000711864150968784</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -8862,28 +8862,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005</v>
+        <v>0.000005</v>
       </c>
       <c r="F2" t="n">
         <v>-97.4165769644779</v>
       </c>
       <c r="G2" t="n">
-        <v>0.134553283100108</v>
+        <v>0.000134553283100108</v>
       </c>
       <c r="H2" t="n">
-        <v>0.056162899375</v>
+        <v>0.000056162899375</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.47119740951292</v>
+        <v>-0.00547119740951292</v>
       </c>
       <c r="J2" t="n">
-        <v>-38.2983818665904</v>
+        <v>-0.0382983818665904</v>
       </c>
       <c r="K2" t="n">
-        <v>62.663958059636</v>
+        <v>0.062663958059636</v>
       </c>
       <c r="L2" t="n">
-        <v>168.458581400209</v>
+        <v>0.168458581400209</v>
       </c>
       <c r="M2" t="n">
         <v>2.68828504640403</v>
@@ -8892,7 +8892,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>98.2675058167886</v>
+        <v>0.0982675058167886</v>
       </c>
       <c r="P2" t="n">
         <v>1.56816627706902</v>
@@ -8915,28 +8915,28 @@
         <v>124.327233584499</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10732579875</v>
+        <v>0.00010732579875</v>
       </c>
       <c r="F3" t="n">
         <v>6.27915321133834</v>
       </c>
       <c r="G3" t="n">
-        <v>13.3435196508342</v>
+        <v>0.0133435196508342</v>
       </c>
       <c r="H3" t="n">
-        <v>0.161461410918056</v>
+        <v>0.000161461410918056</v>
       </c>
       <c r="I3" t="n">
-        <v>1.01384093687333</v>
+        <v>0.00101384093687333</v>
       </c>
       <c r="J3" t="n">
-        <v>7.09688655811329</v>
+        <v>0.0070968865581133</v>
       </c>
       <c r="K3" t="n">
-        <v>62.663958059636</v>
+        <v>0.062663958059636</v>
       </c>
       <c r="L3" t="n">
-        <v>168.458581400209</v>
+        <v>0.168458581400209</v>
       </c>
       <c r="M3" t="n">
         <v>2.68828504640403</v>
@@ -8945,7 +8945,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>98.2675058167886</v>
+        <v>0.0982675058167886</v>
       </c>
       <c r="P3" t="n">
         <v>1.56816627706902</v>
@@ -8968,28 +8968,28 @@
         <v>118.048080373161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.215597023086111</v>
+        <v>0.000215597023086111</v>
       </c>
       <c r="F4" t="n">
         <v>57.0505920344456</v>
       </c>
       <c r="G4" t="n">
-        <v>25.4508147094835</v>
+        <v>0.0254508147094835</v>
       </c>
       <c r="H4" t="n">
-        <v>0.221564704043056</v>
+        <v>0.000221564704043056</v>
       </c>
       <c r="I4" t="n">
-        <v>12.640397539593</v>
+        <v>0.0126403975395931</v>
       </c>
       <c r="J4" t="n">
-        <v>88.4827827771513</v>
+        <v>0.0884827827771514</v>
       </c>
       <c r="K4" t="n">
-        <v>62.663958059636</v>
+        <v>0.062663958059636</v>
       </c>
       <c r="L4" t="n">
-        <v>168.458581400209</v>
+        <v>0.168458581400209</v>
       </c>
       <c r="M4" t="n">
         <v>2.68828504640403</v>
@@ -8998,7 +8998,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>98.2675058167886</v>
+        <v>0.0982675058167886</v>
       </c>
       <c r="P4" t="n">
         <v>1.56816627706902</v>
@@ -9021,28 +9021,28 @@
         <v>60.9974883387155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.227532385</v>
+        <v>0.000227532385</v>
       </c>
       <c r="F5" t="n">
         <v>39.4689630426982</v>
       </c>
       <c r="G5" t="n">
-        <v>13.8789040007176</v>
+        <v>0.0138789040007176</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1890165185</v>
+        <v>0.0001890165185</v>
       </c>
       <c r="I5" t="n">
-        <v>7.46028598313599</v>
+        <v>0.00746028598313599</v>
       </c>
       <c r="J5" t="n">
-        <v>52.2220018819519</v>
+        <v>0.0522220018819519</v>
       </c>
       <c r="K5" t="n">
-        <v>62.663958059636</v>
+        <v>0.062663958059636</v>
       </c>
       <c r="L5" t="n">
-        <v>168.458581400209</v>
+        <v>0.168458581400209</v>
       </c>
       <c r="M5" t="n">
         <v>2.68828504640403</v>
@@ -9051,7 +9051,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>98.2675058167886</v>
+        <v>0.0982675058167886</v>
       </c>
       <c r="P5" t="n">
         <v>1.56816627706902</v>
@@ -9074,16 +9074,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.150500652</v>
+        <v>0.000150500652</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.24005709364909</v>
+        <v>0.00324005709364909</v>
       </c>
       <c r="H6" t="n">
-        <v>0.188746942</v>
+        <v>0.000188746942</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -9092,10 +9092,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>62.663958059636</v>
+        <v>0.062663958059636</v>
       </c>
       <c r="L6" t="n">
-        <v>168.458581400209</v>
+        <v>0.168458581400209</v>
       </c>
       <c r="M6" t="n">
         <v>2.68828504640403</v>
@@ -9104,7 +9104,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O6" t="n">
-        <v>98.2675058167886</v>
+        <v>0.0982675058167886</v>
       </c>
       <c r="P6" t="n">
         <v>1.56816627706902</v>
@@ -9127,28 +9127,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.226993232</v>
+        <v>0.000226993232</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>4.88682953713671</v>
+        <v>0.00488682953713671</v>
       </c>
       <c r="H7" t="n">
-        <v>0.193821662</v>
+        <v>0.000193821662</v>
       </c>
       <c r="I7" t="n">
-        <v>2.08634727664155</v>
+        <v>0.00208634727664155</v>
       </c>
       <c r="J7" t="n">
-        <v>14.6044309364909</v>
+        <v>0.0146044309364908</v>
       </c>
       <c r="K7" t="n">
-        <v>62.663958059636</v>
+        <v>0.062663958059636</v>
       </c>
       <c r="L7" t="n">
-        <v>168.458581400209</v>
+        <v>0.168458581400209</v>
       </c>
       <c r="M7" t="n">
         <v>2.68828504640403</v>
@@ -9157,7 +9157,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O7" t="n">
-        <v>98.2675058167886</v>
+        <v>0.0982675058167886</v>
       </c>
       <c r="P7" t="n">
         <v>1.56816627706902</v>
@@ -9180,28 +9180,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.160650092</v>
+        <v>0.000160650092</v>
       </c>
       <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72927978471475</v>
+        <v>0.00172927978471475</v>
       </c>
       <c r="H8" t="n">
-        <v>0.080325046</v>
+        <v>0.000080325046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.864639892357374</v>
+        <v>0.000864639892357373</v>
       </c>
       <c r="J8" t="n">
-        <v>6.05247924650162</v>
+        <v>0.00605247924650161</v>
       </c>
       <c r="K8" t="n">
-        <v>62.663958059636</v>
+        <v>0.062663958059636</v>
       </c>
       <c r="L8" t="n">
-        <v>168.458581400209</v>
+        <v>0.168458581400209</v>
       </c>
       <c r="M8" t="n">
         <v>2.68828504640403</v>
@@ -9210,7 +9210,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O8" t="n">
-        <v>98.2675058167886</v>
+        <v>0.0982675058167886</v>
       </c>
       <c r="P8" t="n">
         <v>1.56816627706902</v>
@@ -9300,28 +9300,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2027171675</v>
+        <v>0.0002027171675</v>
       </c>
       <c r="F2" t="n">
         <v>-8.97021887334051</v>
       </c>
       <c r="G2" t="n">
-        <v>5.45525208557589</v>
+        <v>0.00545525208557589</v>
       </c>
       <c r="H2" t="n">
-        <v>0.482141291583333</v>
+        <v>0.000482141291583333</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.32491291337759</v>
+        <v>-0.00432491291337759</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.9747387401328</v>
+        <v>-0.0129747387401328</v>
       </c>
       <c r="K2" t="n">
-        <v>78.93907356626</v>
+        <v>0.07893907356626</v>
       </c>
       <c r="L2" t="n">
-        <v>81.0291577807678</v>
+        <v>0.0810291577807678</v>
       </c>
       <c r="M2" t="n">
         <v>1.02647718195924</v>
@@ -9330,7 +9330,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>20.257289445192</v>
+        <v>0.020257289445192</v>
       </c>
       <c r="P2" t="n">
         <v>0.25661929548981</v>
@@ -9353,28 +9353,28 @@
         <v>35.880875493362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.761565415666667</v>
+        <v>0.000761565415666667</v>
       </c>
       <c r="F3" t="n">
         <v>3.5880875493362</v>
       </c>
       <c r="G3" t="n">
-        <v>27.3256338595862</v>
+        <v>0.0273256338595862</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09546531283333</v>
+        <v>0.00109546531283333</v>
       </c>
       <c r="I3" t="n">
-        <v>3.93062544970697</v>
+        <v>0.00393062544970697</v>
       </c>
       <c r="J3" t="n">
-        <v>11.7918763491209</v>
+        <v>0.0117918763491209</v>
       </c>
       <c r="K3" t="n">
-        <v>78.93907356626</v>
+        <v>0.07893907356626</v>
       </c>
       <c r="L3" t="n">
-        <v>81.0291577807678</v>
+        <v>0.0810291577807678</v>
       </c>
       <c r="M3" t="n">
         <v>1.02647718195924</v>
@@ -9383,7 +9383,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>20.257289445192</v>
+        <v>0.020257289445192</v>
       </c>
       <c r="P3" t="n">
         <v>0.25661929548981</v>
@@ -9406,28 +9406,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>1.42936521</v>
+        <v>0.00142936521</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>46.158187621098</v>
+        <v>0.046158187621098</v>
       </c>
       <c r="H4" t="n">
-        <v>0.714682605</v>
+        <v>0.000714682605</v>
       </c>
       <c r="I4" t="n">
-        <v>23.079093810549</v>
+        <v>0.023079093810549</v>
       </c>
       <c r="J4" t="n">
-        <v>69.2372814316469</v>
+        <v>0.0692372814316469</v>
       </c>
       <c r="K4" t="n">
-        <v>78.93907356626</v>
+        <v>0.07893907356626</v>
       </c>
       <c r="L4" t="n">
-        <v>81.0291577807678</v>
+        <v>0.0810291577807678</v>
       </c>
       <c r="M4" t="n">
         <v>1.02647718195924</v>
@@ -9436,7 +9436,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>20.257289445192</v>
+        <v>0.020257289445192</v>
       </c>
       <c r="P4" t="n">
         <v>0.25661929548981</v>
@@ -9526,37 +9526,37 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006</v>
+        <v>0.000006</v>
       </c>
       <c r="F2" t="n">
         <v>-41.2630068173663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0968783638320775</v>
+        <v>0.0000968783638320775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0553236911666667</v>
+        <v>0.0000553236911666667</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.28282184577204</v>
+        <v>-0.00228282184577204</v>
       </c>
       <c r="J2" t="n">
-        <v>-11.4141092288602</v>
+        <v>-0.0114141092288602</v>
       </c>
       <c r="K2" t="n">
-        <v>45.3879983787346</v>
+        <v>0.0453879983787346</v>
       </c>
       <c r="L2" t="n">
-        <v>114.492759146663</v>
+        <v>0.114492759146663</v>
       </c>
       <c r="M2" t="n">
-        <v>2.52253378065479</v>
+        <v>2.5225337806548</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>47.7053163111096</v>
+        <v>0.0477053163111096</v>
       </c>
       <c r="P2" t="n">
         <v>1.0510557419395</v>
@@ -9579,37 +9579,37 @@
         <v>57.4094007893793</v>
       </c>
       <c r="E3" t="n">
-        <v>0.104647382333333</v>
+        <v>0.000104647382333333</v>
       </c>
       <c r="F3" t="n">
         <v>-24.3989953354862</v>
       </c>
       <c r="G3" t="n">
-        <v>6.00774351393374</v>
+        <v>0.00600774351393374</v>
       </c>
       <c r="H3" t="n">
-        <v>0.244928510866667</v>
+        <v>0.000244928510866667</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.97600959416338</v>
+        <v>-0.00597600959416338</v>
       </c>
       <c r="J3" t="n">
-        <v>-29.8800479708169</v>
+        <v>-0.0298800479708169</v>
       </c>
       <c r="K3" t="n">
-        <v>45.3879983787346</v>
+        <v>0.0453879983787346</v>
       </c>
       <c r="L3" t="n">
-        <v>114.492759146663</v>
+        <v>0.114492759146663</v>
       </c>
       <c r="M3" t="n">
-        <v>2.52253378065479</v>
+        <v>2.5225337806548</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>47.7053163111096</v>
+        <v>0.0477053163111096</v>
       </c>
       <c r="P3" t="n">
         <v>1.0510557419395</v>
@@ -9632,37 +9632,37 @@
         <v>81.8083961248655</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3852096394</v>
+        <v>0.0003852096394</v>
       </c>
       <c r="F4" t="n">
         <v>60.2798708288482</v>
       </c>
       <c r="G4" t="n">
-        <v>31.5133827711518</v>
+        <v>0.0315133827711518</v>
       </c>
       <c r="H4" t="n">
-        <v>0.318318687825</v>
+        <v>0.000318318687825</v>
       </c>
       <c r="I4" t="n">
-        <v>19.1882093844995</v>
+        <v>0.0191882093844995</v>
       </c>
       <c r="J4" t="n">
-        <v>95.9410469224973</v>
+        <v>0.0959410469224973</v>
       </c>
       <c r="K4" t="n">
-        <v>45.3879983787346</v>
+        <v>0.0453879983787346</v>
       </c>
       <c r="L4" t="n">
-        <v>114.492759146663</v>
+        <v>0.114492759146663</v>
       </c>
       <c r="M4" t="n">
-        <v>2.52253378065479</v>
+        <v>2.5225337806548</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>47.7053163111096</v>
+        <v>0.0477053163111096</v>
       </c>
       <c r="P4" t="n">
         <v>1.0510557419395</v>
@@ -9685,37 +9685,37 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25142773625</v>
+        <v>0.00025142773625</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>5.41286837997847</v>
+        <v>0.00541286837997847</v>
       </c>
       <c r="H5" t="n">
-        <v>0.235202340625</v>
+        <v>0.000235202340625</v>
       </c>
       <c r="I5" t="n">
-        <v>2.53177976991389</v>
+        <v>0.00253177976991389</v>
       </c>
       <c r="J5" t="n">
-        <v>12.6588988495694</v>
+        <v>0.0126588988495694</v>
       </c>
       <c r="K5" t="n">
-        <v>45.3879983787346</v>
+        <v>0.0453879983787346</v>
       </c>
       <c r="L5" t="n">
-        <v>114.492759146663</v>
+        <v>0.114492759146663</v>
       </c>
       <c r="M5" t="n">
-        <v>2.52253378065479</v>
+        <v>2.5225337806548</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>47.7053163111096</v>
+        <v>0.0477053163111096</v>
       </c>
       <c r="P5" t="n">
         <v>1.0510557419395</v>
@@ -9738,37 +9738,37 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.218976945</v>
+        <v>0.000218976945</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>2.35712534983854</v>
+        <v>0.00235712534983854</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1094884725</v>
+        <v>0.0001094884725</v>
       </c>
       <c r="I6" t="n">
-        <v>1.17856267491927</v>
+        <v>0.00117856267491927</v>
       </c>
       <c r="J6" t="n">
-        <v>5.89281337459634</v>
+        <v>0.00589281337459634</v>
       </c>
       <c r="K6" t="n">
-        <v>45.3879983787346</v>
+        <v>0.0453879983787346</v>
       </c>
       <c r="L6" t="n">
-        <v>114.492759146663</v>
+        <v>0.114492759146663</v>
       </c>
       <c r="M6" t="n">
-        <v>2.52253378065479</v>
+        <v>2.5225337806548</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>47.7053163111096</v>
+        <v>0.0477053163111096</v>
       </c>
       <c r="P6" t="n">
         <v>1.0510557419395</v>
@@ -9858,28 +9858,28 @@
         <v>28.7047003946896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00765874934333333</v>
+        <v>0.00000765874934333333</v>
       </c>
       <c r="F2" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.219842105298409</v>
+        <v>0.000219842105298409</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0132055003016667</v>
+        <v>0.0000132055003016667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0947649824303313</v>
+        <v>0.0000947649824303313</v>
       </c>
       <c r="J2" t="n">
-        <v>0.284294947290994</v>
+        <v>0.000284294947290994</v>
       </c>
       <c r="K2" t="n">
-        <v>1.6835853843081</v>
+        <v>0.0016835853843081</v>
       </c>
       <c r="L2" t="n">
-        <v>1.87434739239325</v>
+        <v>0.00187434739239325</v>
       </c>
       <c r="M2" t="n">
         <v>1.11330699937357</v>
@@ -9888,7 +9888,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.468586848098314</v>
+        <v>0.000468586848098314</v>
       </c>
       <c r="P2" t="n">
         <v>0.278326749843394</v>
@@ -9911,16 +9911,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01875225126</v>
+        <v>0.00001875225126</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.403708315608181</v>
+        <v>0.000403708315608181</v>
       </c>
       <c r="H3" t="n">
-        <v>0.033995437655</v>
+        <v>0.000033995437655</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9929,10 +9929,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.6835853843081</v>
+        <v>0.0016835853843081</v>
       </c>
       <c r="L3" t="n">
-        <v>1.87434739239325</v>
+        <v>0.00187434739239325</v>
       </c>
       <c r="M3" t="n">
         <v>1.11330699937357</v>
@@ -9941,7 +9941,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.468586848098314</v>
+        <v>0.000468586848098314</v>
       </c>
       <c r="P3" t="n">
         <v>0.278326749843394</v>
@@ -9964,28 +9964,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04923862405</v>
+        <v>0.00004923862405</v>
       </c>
       <c r="F4" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>1.06003496340151</v>
+        <v>0.00106003496340151</v>
       </c>
       <c r="H4" t="n">
-        <v>0.024619312025</v>
+        <v>0.000024619312025</v>
       </c>
       <c r="I4" t="n">
-        <v>0.530017481700754</v>
+        <v>0.000530017481700754</v>
       </c>
       <c r="J4" t="n">
-        <v>1.59005244510226</v>
+        <v>0.00159005244510226</v>
       </c>
       <c r="K4" t="n">
-        <v>1.6835853843081</v>
+        <v>0.0016835853843081</v>
       </c>
       <c r="L4" t="n">
-        <v>1.87434739239325</v>
+        <v>0.00187434739239325</v>
       </c>
       <c r="M4" t="n">
         <v>1.11330699937357</v>
@@ -9994,7 +9994,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.468586848098314</v>
+        <v>0.000468586848098314</v>
       </c>
       <c r="P4" t="n">
         <v>0.278326749843394</v>
@@ -10084,28 +10084,28 @@
         <v>25.8342303552207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01096476235</v>
+        <v>0.00001096476235</v>
       </c>
       <c r="F2" t="n">
         <v>-12.9171151776103</v>
       </c>
       <c r="G2" t="n">
-        <v>0.283266196340151</v>
+        <v>0.000283266196340151</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0197107718425</v>
+        <v>0.0000197107718425</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.254606310129171</v>
+        <v>-0.000254606310129171</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.27303155064586</v>
+        <v>-0.00127303155064586</v>
       </c>
       <c r="K2" t="n">
-        <v>9.34264615609457</v>
+        <v>0.00934264615609456</v>
       </c>
       <c r="L2" t="n">
-        <v>14.3171683804514</v>
+        <v>0.0143171683804514</v>
       </c>
       <c r="M2" t="n">
         <v>1.53245324089597</v>
@@ -10114,7 +10114,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>5.96548682518808</v>
+        <v>0.00596548682518808</v>
       </c>
       <c r="P2" t="n">
         <v>0.638522183706655</v>
@@ -10137,28 +10137,28 @@
         <v>38.751345532831</v>
       </c>
       <c r="E3" t="n">
-        <v>0.028456781335</v>
+        <v>0.000028456781335</v>
       </c>
       <c r="F3" t="n">
         <v>1.07642626480087</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1027385662648</v>
+        <v>0.0011027385662648</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0315414470175</v>
+        <v>0.0000315414470175</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0339520419994619</v>
+        <v>0.0000339520419994619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.16976020999731</v>
+        <v>0.00016976020999731</v>
       </c>
       <c r="K3" t="n">
-        <v>9.34264615609457</v>
+        <v>0.00934264615609456</v>
       </c>
       <c r="L3" t="n">
-        <v>14.3171683804514</v>
+        <v>0.0143171683804514</v>
       </c>
       <c r="M3" t="n">
         <v>1.53245324089597</v>
@@ -10167,7 +10167,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>5.96548682518808</v>
+        <v>0.00596548682518808</v>
       </c>
       <c r="P3" t="n">
         <v>0.638522183706655</v>
@@ -10190,28 +10190,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0346261127</v>
+        <v>0.0000346261127</v>
       </c>
       <c r="F4" t="n">
         <v>-23.3225690706853</v>
       </c>
       <c r="G4" t="n">
-        <v>1.30453600053821</v>
+        <v>0.00130453600053821</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0715348194122222</v>
+        <v>0.0000715348194122222</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.66837576670055</v>
+        <v>-0.00166837576670055</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.34187883350277</v>
+        <v>-0.00834187883350277</v>
       </c>
       <c r="K4" t="n">
-        <v>9.34264615609457</v>
+        <v>0.00934264615609456</v>
       </c>
       <c r="L4" t="n">
-        <v>14.3171683804514</v>
+        <v>0.0143171683804514</v>
       </c>
       <c r="M4" t="n">
         <v>1.53245324089597</v>
@@ -10220,7 +10220,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>5.96548682518808</v>
+        <v>0.00596548682518808</v>
       </c>
       <c r="P4" t="n">
         <v>0.638522183706655</v>
@@ -10243,28 +10243,28 @@
         <v>60.9974883387155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.108443526124444</v>
+        <v>0.000108443526124444</v>
       </c>
       <c r="F5" t="n">
         <v>50.2332256907069</v>
       </c>
       <c r="G5" t="n">
-        <v>6.61478272018499</v>
+        <v>0.00661478272018499</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0559554012122222</v>
+        <v>0.0000559554012122222</v>
       </c>
       <c r="I5" t="n">
-        <v>2.81082029770761</v>
+        <v>0.00281082029770761</v>
       </c>
       <c r="J5" t="n">
-        <v>14.0541014885381</v>
+        <v>0.0140541014885381</v>
       </c>
       <c r="K5" t="n">
-        <v>9.34264615609457</v>
+        <v>0.00934264615609456</v>
       </c>
       <c r="L5" t="n">
-        <v>14.3171683804514</v>
+        <v>0.0143171683804514</v>
       </c>
       <c r="M5" t="n">
         <v>1.53245324089597</v>
@@ -10273,7 +10273,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>5.96548682518808</v>
+        <v>0.00596548682518808</v>
       </c>
       <c r="P5" t="n">
         <v>0.638522183706655</v>
@@ -10296,28 +10296,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0034672763</v>
+        <v>0.0000034672763</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0373226727664155</v>
+        <v>0.0000373226727664155</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00173363815</v>
+        <v>0.00000173363815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0186613363832078</v>
+        <v>0.0000186613363832078</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0933066819160388</v>
+        <v>0.0000933066819160388</v>
       </c>
       <c r="K6" t="n">
-        <v>9.34264615609457</v>
+        <v>0.00934264615609456</v>
       </c>
       <c r="L6" t="n">
-        <v>14.3171683804514</v>
+        <v>0.0143171683804514</v>
       </c>
       <c r="M6" t="n">
         <v>1.53245324089597</v>
@@ -10326,7 +10326,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>5.96548682518808</v>
+        <v>0.00596548682518808</v>
       </c>
       <c r="P6" t="n">
         <v>0.638522183706655</v>
@@ -10416,28 +10416,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00155</v>
+        <v>0.00000155</v>
       </c>
       <c r="F2" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0417115177610334</v>
+        <v>0.0000417115177610334</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0120399713525</v>
+        <v>0.0000120399713525</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.388804241738428</v>
+        <v>-0.000388804241738428</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.33282545043057</v>
+        <v>-0.00233282545043057</v>
       </c>
       <c r="K2" t="n">
-        <v>22.0819321055902</v>
+        <v>0.0220819321055902</v>
       </c>
       <c r="L2" t="n">
-        <v>58.3940246717923</v>
+        <v>0.0583940246717923</v>
       </c>
       <c r="M2" t="n">
         <v>2.64442551460473</v>
@@ -10446,7 +10446,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>29.1970123358961</v>
+        <v>0.0291970123358961</v>
       </c>
       <c r="P2" t="n">
         <v>1.32221275730237</v>
@@ -10469,28 +10469,28 @@
         <v>59.2034445640474</v>
       </c>
       <c r="E3" t="n">
-        <v>0.022529942705</v>
+        <v>0.000022529942705</v>
       </c>
       <c r="F3" t="n">
         <v>-20.4520990312164</v>
       </c>
       <c r="G3" t="n">
-        <v>1.33385021396663</v>
+        <v>0.00133385021396663</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0570023964725</v>
+        <v>0.0000570023964725</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.16581865767223</v>
+        <v>-0.00116581865767223</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.99491194603337</v>
+        <v>-0.00699491194603337</v>
       </c>
       <c r="K3" t="n">
-        <v>22.0819321055902</v>
+        <v>0.0220819321055902</v>
       </c>
       <c r="L3" t="n">
-        <v>58.3940246717923</v>
+        <v>0.0583940246717923</v>
       </c>
       <c r="M3" t="n">
         <v>2.64442551460473</v>
@@ -10499,7 +10499,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>29.1970123358961</v>
+        <v>0.0291970123358961</v>
       </c>
       <c r="P3" t="n">
         <v>1.32221275730237</v>
@@ -10522,28 +10522,28 @@
         <v>79.6555435952637</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09147485024</v>
+        <v>0.00009147485024</v>
       </c>
       <c r="F4" t="n">
         <v>18.6580552565483</v>
       </c>
       <c r="G4" t="n">
-        <v>7.28647892116254</v>
+        <v>0.00728647892116254</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12242072207375</v>
+        <v>0.00012242072207375</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28413259699857</v>
+        <v>0.00228413259699857</v>
       </c>
       <c r="J4" t="n">
-        <v>13.7047955819914</v>
+        <v>0.0137047955819914</v>
       </c>
       <c r="K4" t="n">
-        <v>22.0819321055902</v>
+        <v>0.0220819321055902</v>
       </c>
       <c r="L4" t="n">
-        <v>58.3940246717923</v>
+        <v>0.0583940246717923</v>
       </c>
       <c r="M4" t="n">
         <v>2.64442551460473</v>
@@ -10552,7 +10552,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>29.1970123358961</v>
+        <v>0.0291970123358961</v>
       </c>
       <c r="P4" t="n">
         <v>1.32221275730237</v>
@@ -10575,28 +10575,28 @@
         <v>60.9974883387155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1533665939075</v>
+        <v>0.0001533665939075</v>
       </c>
       <c r="F5" t="n">
         <v>39.4689630426982</v>
       </c>
       <c r="G5" t="n">
-        <v>9.35497702342124</v>
+        <v>0.00935497702342124</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12638668359875</v>
+        <v>0.00012638668359875</v>
       </c>
       <c r="I5" t="n">
-        <v>4.98835134404826</v>
+        <v>0.00498835134404826</v>
       </c>
       <c r="J5" t="n">
-        <v>29.9301080642896</v>
+        <v>0.0299301080642896</v>
       </c>
       <c r="K5" t="n">
-        <v>22.0819321055902</v>
+        <v>0.0220819321055902</v>
       </c>
       <c r="L5" t="n">
-        <v>58.3940246717923</v>
+        <v>0.0583940246717923</v>
       </c>
       <c r="M5" t="n">
         <v>2.64442551460473</v>
@@ -10605,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>29.1970123358961</v>
+        <v>0.0291970123358961</v>
       </c>
       <c r="P5" t="n">
         <v>1.32221275730237</v>
@@ -10628,28 +10628,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09940677329</v>
+        <v>0.00009940677329</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14008123336921</v>
+        <v>0.00214008123336921</v>
       </c>
       <c r="H6" t="n">
-        <v>0.139111888595</v>
+        <v>0.000139111888595</v>
       </c>
       <c r="I6" t="n">
-        <v>1.49743690629709</v>
+        <v>0.00149743690629709</v>
       </c>
       <c r="J6" t="n">
-        <v>8.98462143778256</v>
+        <v>0.00898462143778256</v>
       </c>
       <c r="K6" t="n">
-        <v>22.0819321055902</v>
+        <v>0.0220819321055902</v>
       </c>
       <c r="L6" t="n">
-        <v>58.3940246717923</v>
+        <v>0.0583940246717923</v>
       </c>
       <c r="M6" t="n">
         <v>2.64442551460473</v>
@@ -10658,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>29.1970123358961</v>
+        <v>0.0291970123358961</v>
       </c>
       <c r="P6" t="n">
         <v>1.32221275730237</v>
@@ -10681,28 +10681,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1788170039</v>
+        <v>0.0001788170039</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92483319590958</v>
+        <v>0.00192483319590958</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08940850195</v>
+        <v>0.00008940850195</v>
       </c>
       <c r="I7" t="n">
-        <v>0.96241659795479</v>
+        <v>0.00096241659795479</v>
       </c>
       <c r="J7" t="n">
-        <v>5.77449958772874</v>
+        <v>0.00577449958772874</v>
       </c>
       <c r="K7" t="n">
-        <v>22.0819321055902</v>
+        <v>0.0220819321055902</v>
       </c>
       <c r="L7" t="n">
-        <v>58.3940246717923</v>
+        <v>0.0583940246717923</v>
       </c>
       <c r="M7" t="n">
         <v>2.64442551460473</v>
@@ -10711,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>29.1970123358961</v>
+        <v>0.0291970123358961</v>
       </c>
       <c r="P7" t="n">
         <v>1.32221275730237</v>
@@ -10801,16 +10801,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0012</v>
+        <v>0.0000012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0129171151776103</v>
+        <v>0.0000129171151776103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.050571527</v>
+        <v>0.000050571527</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10819,10 +10819,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.08873039827772</v>
+        <v>0.00108873039827772</v>
       </c>
       <c r="L2" t="n">
-        <v>1.07581328310011</v>
+        <v>0.00107581328310011</v>
       </c>
       <c r="M2" t="n">
         <v>0.988135616312317</v>
@@ -10831,7 +10831,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.179302213850018</v>
+        <v>0.000179302213850018</v>
       </c>
       <c r="P2" t="n">
         <v>0.164689269385386</v>
@@ -10854,28 +10854,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.099943054</v>
+        <v>0.000099943054</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.07581328310011</v>
+        <v>0.00107581328310011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.049971527</v>
+        <v>0.000049971527</v>
       </c>
       <c r="I3" t="n">
-        <v>0.537906641550054</v>
+        <v>0.000537906641550054</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07581328310011</v>
+        <v>0.00107581328310011</v>
       </c>
       <c r="K3" t="n">
-        <v>1.08873039827772</v>
+        <v>0.00108873039827772</v>
       </c>
       <c r="L3" t="n">
-        <v>1.07581328310011</v>
+        <v>0.00107581328310011</v>
       </c>
       <c r="M3" t="n">
         <v>0.988135616312317</v>
@@ -10884,7 +10884,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.179302213850018</v>
+        <v>0.000179302213850018</v>
       </c>
       <c r="P3" t="n">
         <v>0.164689269385386</v>
@@ -10974,16 +10974,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.211634588</v>
+        <v>0.000211634588</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.27809029063509</v>
+        <v>0.00227809029063509</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2962408695</v>
+        <v>0.0002962408695</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10992,10 +10992,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.2850232588805</v>
+        <v>0.0212850232588805</v>
       </c>
       <c r="L2" t="n">
-        <v>22.3610913092034</v>
+        <v>0.0223610913092035</v>
       </c>
       <c r="M2" t="n">
         <v>1.05055517380626</v>
@@ -11004,7 +11004,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>5.59027282730086</v>
+        <v>0.00559027282730086</v>
       </c>
       <c r="P2" t="n">
         <v>0.262638793451564</v>
@@ -11027,28 +11027,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.380847151</v>
+        <v>0.000380847151</v>
       </c>
       <c r="F3" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>4.0995387621098</v>
+        <v>0.0040995387621098</v>
       </c>
       <c r="H3" t="n">
-        <v>0.65205588275</v>
+        <v>0.00065205588275</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.50945039155005</v>
+        <v>-0.00350945039155006</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.5283511746502</v>
+        <v>-0.0105283511746502</v>
       </c>
       <c r="K3" t="n">
-        <v>21.2850232588805</v>
+        <v>0.0212850232588805</v>
       </c>
       <c r="L3" t="n">
-        <v>22.3610913092034</v>
+        <v>0.0223610913092035</v>
       </c>
       <c r="M3" t="n">
         <v>1.05055517380626</v>
@@ -11057,7 +11057,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>5.59027282730086</v>
+        <v>0.00559027282730086</v>
       </c>
       <c r="P3" t="n">
         <v>0.262638793451564</v>
@@ -11080,28 +11080,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9232646145</v>
+        <v>0.0009232646145</v>
       </c>
       <c r="F4" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G4" t="n">
-        <v>14.9073942061356</v>
+        <v>0.0149073942061356</v>
       </c>
       <c r="H4" t="n">
-        <v>0.46163230725</v>
+        <v>0.00046163230725</v>
       </c>
       <c r="I4" t="n">
-        <v>7.45369710306782</v>
+        <v>0.00745369710306782</v>
       </c>
       <c r="J4" t="n">
-        <v>22.3610913092034</v>
+        <v>0.0223610913092035</v>
       </c>
       <c r="K4" t="n">
-        <v>21.2850232588805</v>
+        <v>0.0212850232588805</v>
       </c>
       <c r="L4" t="n">
-        <v>22.3610913092034</v>
+        <v>0.0223610913092035</v>
       </c>
       <c r="M4" t="n">
         <v>1.05055517380626</v>
@@ -11110,7 +11110,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>5.59027282730086</v>
+        <v>0.00559027282730086</v>
       </c>
       <c r="P4" t="n">
         <v>0.262638793451564</v>
@@ -11200,28 +11200,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.224399379</v>
+        <v>0.000224399379</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>4.83098770721206</v>
+        <v>0.00483098770721206</v>
       </c>
       <c r="H2" t="n">
-        <v>0.239560865</v>
+        <v>0.000239560865</v>
       </c>
       <c r="I2" t="n">
-        <v>2.57869607104413</v>
+        <v>0.00257869607104413</v>
       </c>
       <c r="J2" t="n">
-        <v>5.15739214208827</v>
+        <v>0.00515739214208827</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5728859956943</v>
+        <v>0.0075728859956943</v>
       </c>
       <c r="L2" t="n">
-        <v>7.89929043057051</v>
+        <v>0.00789929043057051</v>
       </c>
       <c r="M2" t="n">
         <v>1.04310172305008</v>
@@ -11230,7 +11230,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31654840509508</v>
+        <v>0.00131654840509508</v>
       </c>
       <c r="P2" t="n">
         <v>0.173850287175013</v>
@@ -11253,28 +11253,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.254722351</v>
+        <v>0.000254722351</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74189828848224</v>
+        <v>0.00274189828848224</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1273611755</v>
+        <v>0.0001273611755</v>
       </c>
       <c r="I3" t="n">
-        <v>1.37094914424112</v>
+        <v>0.00137094914424112</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74189828848224</v>
+        <v>0.00274189828848224</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5728859956943</v>
+        <v>0.0075728859956943</v>
       </c>
       <c r="L3" t="n">
-        <v>7.89929043057051</v>
+        <v>0.00789929043057051</v>
       </c>
       <c r="M3" t="n">
         <v>1.04310172305008</v>
@@ -11283,7 +11283,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31654840509508</v>
+        <v>0.00131654840509508</v>
       </c>
       <c r="P3" t="n">
         <v>0.173850287175013</v>
@@ -11373,28 +11373,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.055231849</v>
+        <v>0.000055231849</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.594530129171152</v>
+        <v>0.000594530129171152</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1785877495</v>
+        <v>0.0001785877495</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.92236544133477</v>
+        <v>-0.00192236544133477</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.76709632400431</v>
+        <v>-0.00576709632400431</v>
       </c>
       <c r="K2" t="n">
-        <v>26.9961428525296</v>
+        <v>0.0269961428525296</v>
       </c>
       <c r="L2" t="n">
-        <v>29.8518168245425</v>
+        <v>0.0298518168245425</v>
       </c>
       <c r="M2" t="n">
         <v>1.10578081423011</v>
@@ -11403,7 +11403,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>7.46295420613563</v>
+        <v>0.00746295420613563</v>
       </c>
       <c r="P2" t="n">
         <v>0.276445203557527</v>
@@ -11426,28 +11426,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.30194365</v>
+        <v>0.00030194365</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>6.50040150699677</v>
+        <v>0.00650040150699677</v>
       </c>
       <c r="H3" t="n">
-        <v>0.459108912</v>
+        <v>0.000459108912</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.94196891280947</v>
+        <v>-0.00494196891280947</v>
       </c>
       <c r="J3" t="n">
-        <v>-14.8259067384284</v>
+        <v>-0.0148259067384284</v>
       </c>
       <c r="K3" t="n">
-        <v>26.9961428525296</v>
+        <v>0.0269961428525296</v>
       </c>
       <c r="L3" t="n">
-        <v>29.8518168245425</v>
+        <v>0.0298518168245425</v>
       </c>
       <c r="M3" t="n">
         <v>1.10578081423011</v>
@@ -11456,7 +11456,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>7.46295420613563</v>
+        <v>0.00746295420613563</v>
       </c>
       <c r="P3" t="n">
         <v>0.276445203557527</v>
@@ -11479,28 +11479,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.616274174</v>
+        <v>0.000616274174</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>19.9012112163617</v>
+        <v>0.0199012112163617</v>
       </c>
       <c r="H4" t="n">
-        <v>0.308137087</v>
+        <v>0.000308137087</v>
       </c>
       <c r="I4" t="n">
-        <v>9.95060560818084</v>
+        <v>0.00995060560818084</v>
       </c>
       <c r="J4" t="n">
-        <v>29.8518168245425</v>
+        <v>0.0298518168245425</v>
       </c>
       <c r="K4" t="n">
-        <v>26.9961428525296</v>
+        <v>0.0269961428525296</v>
       </c>
       <c r="L4" t="n">
-        <v>29.8518168245425</v>
+        <v>0.0298518168245425</v>
       </c>
       <c r="M4" t="n">
         <v>1.10578081423011</v>
@@ -11509,7 +11509,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>7.46295420613563</v>
+        <v>0.00746295420613563</v>
       </c>
       <c r="P4" t="n">
         <v>0.276445203557527</v>
@@ -11599,16 +11599,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.049341255</v>
+        <v>0.001049341255</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.295384876211</v>
+        <v>0.011295384876211</v>
       </c>
       <c r="H2" t="n">
-        <v>2.568699509</v>
+        <v>0.002568699509</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11617,10 +11617,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.3003123573735</v>
+        <v>0.0553003123573735</v>
       </c>
       <c r="L2" t="n">
-        <v>44.0049274811625</v>
+        <v>0.0440049274811625</v>
       </c>
       <c r="M2" t="n">
         <v>0.795744646011843</v>
@@ -11629,7 +11629,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>7.33415458019376</v>
+        <v>0.00733415458019376</v>
       </c>
       <c r="P2" t="n">
         <v>0.13262410766864</v>
@@ -11652,28 +11652,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>4.088057763</v>
+        <v>0.004088057763</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>44.0049274811625</v>
+        <v>0.0440049274811625</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0440288815</v>
+        <v>0.0020440288815</v>
       </c>
       <c r="I3" t="n">
-        <v>22.0024637405813</v>
+        <v>0.0220024637405813</v>
       </c>
       <c r="J3" t="n">
-        <v>44.0049274811625</v>
+        <v>0.0440049274811625</v>
       </c>
       <c r="K3" t="n">
-        <v>55.3003123573735</v>
+        <v>0.0553003123573735</v>
       </c>
       <c r="L3" t="n">
-        <v>44.0049274811625</v>
+        <v>0.0440049274811625</v>
       </c>
       <c r="M3" t="n">
         <v>0.795744646011843</v>
@@ -11682,7 +11682,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>7.33415458019376</v>
+        <v>0.00733415458019376</v>
       </c>
       <c r="P3" t="n">
         <v>0.13262410766864</v>
@@ -11772,28 +11772,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>9.614342565</v>
+        <v>0.009614342565</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>103.491308557589</v>
+        <v>0.103491308557589</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8071712825</v>
+        <v>0.0048071712825</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7456542787944</v>
+        <v>0.0517456542787944</v>
       </c>
       <c r="J2" t="n">
-        <v>51.7456542787944</v>
+        <v>0.0517456542787944</v>
       </c>
       <c r="K2" t="n">
-        <v>103.491308557589</v>
+        <v>0.103491308557589</v>
       </c>
       <c r="L2" t="n">
-        <v>51.7456542787944</v>
+        <v>0.0517456542787944</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -11802,7 +11802,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>4.3121378565662</v>
+        <v>0.0043121378565662</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -11892,28 +11892,28 @@
         <v>35.880875493362</v>
       </c>
       <c r="E2" t="n">
-        <v>0.183096998</v>
+        <v>0.000183096998</v>
       </c>
       <c r="F2" t="n">
         <v>-28.7047003946896</v>
       </c>
       <c r="G2" t="n">
-        <v>6.56968058844636</v>
+        <v>0.00656968058844636</v>
       </c>
       <c r="H2" t="n">
-        <v>0.47156801669</v>
+        <v>0.00047156801669</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.5362186348044</v>
+        <v>-0.0135362186348044</v>
       </c>
       <c r="J2" t="n">
-        <v>-40.6086559044133</v>
+        <v>-0.0406086559044133</v>
       </c>
       <c r="K2" t="n">
-        <v>60.8354915171869</v>
+        <v>0.0608354915171869</v>
       </c>
       <c r="L2" t="n">
-        <v>107.963717678687</v>
+        <v>0.107963717678687</v>
       </c>
       <c r="M2" t="n">
         <v>1.77468308361058</v>
@@ -11922,7 +11922,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>26.9909294196717</v>
+        <v>0.0269909294196717</v>
       </c>
       <c r="P2" t="n">
         <v>0.443670770902646</v>
@@ -11945,28 +11945,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.76003903538</v>
+        <v>0.00076003903538</v>
       </c>
       <c r="F3" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>49.0875587974166</v>
+        <v>0.0490875587974166</v>
       </c>
       <c r="H3" t="n">
-        <v>0.62054932919</v>
+        <v>0.00062054932919</v>
       </c>
       <c r="I3" t="n">
-        <v>33.3987798272336</v>
+        <v>0.0333987798272336</v>
       </c>
       <c r="J3" t="n">
-        <v>100.196339481701</v>
+        <v>0.100196339481701</v>
       </c>
       <c r="K3" t="n">
-        <v>60.8354915171869</v>
+        <v>0.0608354915171869</v>
       </c>
       <c r="L3" t="n">
-        <v>107.963717678687</v>
+        <v>0.107963717678687</v>
       </c>
       <c r="M3" t="n">
         <v>1.77468308361058</v>
@@ -11975,7 +11975,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>26.9909294196717</v>
+        <v>0.0269909294196717</v>
       </c>
       <c r="P3" t="n">
         <v>0.443670770902646</v>
@@ -11998,28 +11998,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.481059623</v>
+        <v>0.000481059623</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>5.178252131324</v>
+        <v>0.005178252131324</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2405298115</v>
+        <v>0.0002405298115</v>
       </c>
       <c r="I4" t="n">
-        <v>2.589126065662</v>
+        <v>0.002589126065662</v>
       </c>
       <c r="J4" t="n">
-        <v>7.76737819698601</v>
+        <v>0.00776737819698601</v>
       </c>
       <c r="K4" t="n">
-        <v>60.8354915171869</v>
+        <v>0.0608354915171869</v>
       </c>
       <c r="L4" t="n">
-        <v>107.963717678687</v>
+        <v>0.107963717678687</v>
       </c>
       <c r="M4" t="n">
         <v>1.77468308361058</v>
@@ -12028,7 +12028,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>26.9909294196717</v>
+        <v>0.0269909294196717</v>
       </c>
       <c r="P4" t="n">
         <v>0.443670770902646</v>
@@ -12118,16 +12118,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.233366099</v>
+        <v>0.000233366099</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.02402796555436</v>
+        <v>0.00502402796555436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6533877625</v>
+        <v>0.0006533877625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12136,10 +12136,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>127.675093199677</v>
+        <v>0.127675093199677</v>
       </c>
       <c r="L2" t="n">
-        <v>177.571698595264</v>
+        <v>0.177571698595264</v>
       </c>
       <c r="M2" t="n">
         <v>1.39080923416716</v>
@@ -12148,7 +12148,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>59.1905661984212</v>
+        <v>0.0591905661984213</v>
       </c>
       <c r="P2" t="n">
         <v>0.46360307805572</v>
@@ -12171,28 +12171,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>1.073409426</v>
+        <v>0.001073409426</v>
       </c>
       <c r="F3" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>23.1089219806243</v>
+        <v>0.0231089219806243</v>
       </c>
       <c r="H3" t="n">
-        <v>1.30468692375</v>
+        <v>0.00130468692375</v>
       </c>
       <c r="I3" t="n">
-        <v>7.02199636033369</v>
+        <v>0.00702199636033369</v>
       </c>
       <c r="J3" t="n">
-        <v>28.0879854413348</v>
+        <v>0.0280879854413348</v>
       </c>
       <c r="K3" t="n">
-        <v>127.675093199677</v>
+        <v>0.127675093199677</v>
       </c>
       <c r="L3" t="n">
-        <v>177.571698595264</v>
+        <v>0.177571698595264</v>
       </c>
       <c r="M3" t="n">
         <v>1.39080923416716</v>
@@ -12201,7 +12201,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>59.1905661984212</v>
+        <v>0.0591905661984213</v>
       </c>
       <c r="P3" t="n">
         <v>0.46360307805572</v>
@@ -12224,28 +12224,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5359644215</v>
+        <v>0.0015359644215</v>
       </c>
       <c r="F4" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>24.8002866765339</v>
+        <v>0.0248002866765339</v>
       </c>
       <c r="H4" t="n">
-        <v>2.50386182975</v>
+        <v>0.00250386182975</v>
       </c>
       <c r="I4" t="n">
-        <v>-13.4761131848762</v>
+        <v>-0.0134761131848762</v>
       </c>
       <c r="J4" t="n">
-        <v>-53.9044527395048</v>
+        <v>-0.0539044527395049</v>
       </c>
       <c r="K4" t="n">
-        <v>127.675093199677</v>
+        <v>0.127675093199677</v>
       </c>
       <c r="L4" t="n">
-        <v>177.571698595264</v>
+        <v>0.177571698595264</v>
       </c>
       <c r="M4" t="n">
         <v>1.39080923416716</v>
@@ -12254,7 +12254,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>59.1905661984212</v>
+        <v>0.0591905661984213</v>
       </c>
       <c r="P4" t="n">
         <v>0.46360307805572</v>
@@ -12277,28 +12277,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>3.471759238</v>
+        <v>0.003471759238</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>74.7418565769645</v>
+        <v>0.0747418565769645</v>
       </c>
       <c r="H5" t="n">
-        <v>1.735879619</v>
+        <v>0.001735879619</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3709282884822</v>
+        <v>0.0373709282884822</v>
       </c>
       <c r="J5" t="n">
-        <v>149.483713153929</v>
+        <v>0.149483713153929</v>
       </c>
       <c r="K5" t="n">
-        <v>127.675093199677</v>
+        <v>0.127675093199677</v>
       </c>
       <c r="L5" t="n">
-        <v>177.571698595264</v>
+        <v>0.177571698595264</v>
       </c>
       <c r="M5" t="n">
         <v>1.39080923416716</v>
@@ -12307,7 +12307,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>59.1905661984212</v>
+        <v>0.0591905661984213</v>
       </c>
       <c r="P5" t="n">
         <v>0.46360307805572</v>
@@ -12397,28 +12397,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.131689311</v>
+        <v>0.000131689311</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41753833153929</v>
+        <v>0.00141753833153929</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0658446555</v>
+        <v>0.0000658446555</v>
       </c>
       <c r="I2" t="n">
-        <v>0.708769165769645</v>
+        <v>0.000708769165769645</v>
       </c>
       <c r="J2" t="n">
-        <v>0.708769165769645</v>
+        <v>0.000708769165769645</v>
       </c>
       <c r="K2" t="n">
-        <v>1.41753833153929</v>
+        <v>0.00141753833153929</v>
       </c>
       <c r="L2" t="n">
-        <v>0.708769165769645</v>
+        <v>0.000708769165769645</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -12427,7 +12427,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0590640971474704</v>
+        <v>0.0000590640971474704</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -12517,16 +12517,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.140165234</v>
+        <v>0.000140165234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.50877539289559</v>
+        <v>0.00150877539289559</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2929254515</v>
+        <v>0.0002929254515</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12535,10 +12535,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.30625299246502</v>
+        <v>0.00630625299246502</v>
       </c>
       <c r="L2" t="n">
-        <v>4.79747759956943</v>
+        <v>0.00479747759956943</v>
       </c>
       <c r="M2" t="n">
         <v>0.760749307917342</v>
@@ -12547,7 +12547,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.799579599928238</v>
+        <v>0.000799579599928238</v>
       </c>
       <c r="P2" t="n">
         <v>0.126791551319557</v>
@@ -12570,28 +12570,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.445685669</v>
+        <v>0.000445685669</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>4.79747759956943</v>
+        <v>0.00479747759956943</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2228428345</v>
+        <v>0.0002228428345</v>
       </c>
       <c r="I3" t="n">
-        <v>2.39873879978472</v>
+        <v>0.00239873879978472</v>
       </c>
       <c r="J3" t="n">
-        <v>4.79747759956943</v>
+        <v>0.00479747759956943</v>
       </c>
       <c r="K3" t="n">
-        <v>6.30625299246502</v>
+        <v>0.00630625299246502</v>
       </c>
       <c r="L3" t="n">
-        <v>4.79747759956943</v>
+        <v>0.00479747759956943</v>
       </c>
       <c r="M3" t="n">
         <v>0.760749307917342</v>
@@ -12600,7 +12600,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.799579599928238</v>
+        <v>0.000799579599928238</v>
       </c>
       <c r="P3" t="n">
         <v>0.126791551319557</v>
@@ -12690,28 +12690,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3221494</v>
+        <v>0.0013221494</v>
       </c>
       <c r="F2" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>14.231963401507</v>
+        <v>0.014231963401507</v>
       </c>
       <c r="H2" t="n">
-        <v>6.228468975</v>
+        <v>0.006228468975</v>
       </c>
       <c r="I2" t="n">
-        <v>-201.134627825619</v>
+        <v>-0.201134627825619</v>
       </c>
       <c r="J2" t="n">
-        <v>-1810.21165043057</v>
+        <v>-1.81021165043057</v>
       </c>
       <c r="K2" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L2" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M2" t="n">
         <v>3.81103418286267</v>
@@ -12720,7 +12720,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P2" t="n">
         <v>2.858275637147</v>
@@ -12743,28 +12743,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E3" t="n">
-        <v>11.13478855</v>
+        <v>0.01113478855</v>
       </c>
       <c r="F3" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G3" t="n">
-        <v>479.431153928956</v>
+        <v>0.479431153928956</v>
       </c>
       <c r="H3" t="n">
-        <v>11.490840595</v>
+        <v>0.011490840595</v>
       </c>
       <c r="I3" t="n">
-        <v>371.071278632939</v>
+        <v>0.371071278632939</v>
       </c>
       <c r="J3" t="n">
-        <v>3339.64150769645</v>
+        <v>3.33964150769645</v>
       </c>
       <c r="K3" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L3" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M3" t="n">
         <v>3.81103418286267</v>
@@ -12773,7 +12773,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P3" t="n">
         <v>2.858275637147</v>
@@ -12796,16 +12796,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>11.84689264</v>
+        <v>0.01184689264</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>127.52306393972</v>
+        <v>0.12752306393972</v>
       </c>
       <c r="H4" t="n">
-        <v>14.292138925</v>
+        <v>0.014292138925</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -12814,10 +12814,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L4" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M4" t="n">
         <v>3.81103418286267</v>
@@ -12826,7 +12826,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O4" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P4" t="n">
         <v>2.858275637147</v>
@@ -12849,16 +12849,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>16.73738521</v>
+        <v>0.01673738521</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>180.165610441335</v>
+        <v>0.180165610441335</v>
       </c>
       <c r="H5" t="n">
-        <v>19.719855185</v>
+        <v>0.019719855185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -12867,10 +12867,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L5" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M5" t="n">
         <v>3.81103418286267</v>
@@ -12879,7 +12879,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P5" t="n">
         <v>2.858275637147</v>
@@ -12902,16 +12902,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>22.70232516</v>
+        <v>0.02270232516</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>244.373790742734</v>
+        <v>0.244373790742734</v>
       </c>
       <c r="H6" t="n">
-        <v>26.26058191</v>
+        <v>0.02626058191</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -12920,10 +12920,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L6" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M6" t="n">
         <v>3.81103418286267</v>
@@ -12932,7 +12932,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O6" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P6" t="n">
         <v>2.858275637147</v>
@@ -12955,28 +12955,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>29.81883866</v>
+        <v>0.02981883866</v>
       </c>
       <c r="F7" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G7" t="n">
-        <v>320.977811194833</v>
+        <v>0.320977811194833</v>
       </c>
       <c r="H7" t="n">
-        <v>43.52985614</v>
+        <v>0.04352985614</v>
       </c>
       <c r="I7" t="n">
-        <v>-234.283402260495</v>
+        <v>-0.234283402260495</v>
       </c>
       <c r="J7" t="n">
-        <v>-2108.55062034446</v>
+        <v>-2.10855062034446</v>
       </c>
       <c r="K7" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L7" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M7" t="n">
         <v>3.81103418286267</v>
@@ -12985,7 +12985,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P7" t="n">
         <v>2.858275637147</v>
@@ -13008,28 +13008,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E8" t="n">
-        <v>57.24087362</v>
+        <v>0.05724087362</v>
       </c>
       <c r="F8" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G8" t="n">
-        <v>924.233696770721</v>
+        <v>0.924233696770721</v>
       </c>
       <c r="H8" t="n">
-        <v>124.21689136</v>
+        <v>0.12421689136</v>
       </c>
       <c r="I8" t="n">
-        <v>-3342.75810979548</v>
+        <v>-3.34275810979548</v>
       </c>
       <c r="J8" t="n">
-        <v>-30084.8229881593</v>
+        <v>-30.0848229881593</v>
       </c>
       <c r="K8" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L8" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M8" t="n">
         <v>3.81103418286267</v>
@@ -13038,7 +13038,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P8" t="n">
         <v>2.858275637147</v>
@@ -13061,28 +13061,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E9" t="n">
-        <v>191.1929091</v>
+        <v>0.1911929091</v>
       </c>
       <c r="F9" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G9" t="n">
-        <v>8232.20275995694</v>
+        <v>8.23220275995694</v>
       </c>
       <c r="H9" t="n">
-        <v>124.996372965</v>
+        <v>0.124996372965</v>
       </c>
       <c r="I9" t="n">
-        <v>4036.48136593111</v>
+        <v>4.03648136593111</v>
       </c>
       <c r="J9" t="n">
-        <v>36328.33229338</v>
+        <v>36.32833229338</v>
       </c>
       <c r="K9" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L9" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M9" t="n">
         <v>3.81103418286267</v>
@@ -13091,7 +13091,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O9" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P9" t="n">
         <v>2.858275637147</v>
@@ -13114,28 +13114,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>58.79983683</v>
+        <v>0.05879983683</v>
       </c>
       <c r="F10" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G10" t="n">
-        <v>632.93688729817</v>
+        <v>0.63293688729817</v>
       </c>
       <c r="H10" t="n">
-        <v>29.399918415</v>
+        <v>0.029399918415</v>
       </c>
       <c r="I10" t="n">
-        <v>316.468443649085</v>
+        <v>0.316468443649085</v>
       </c>
       <c r="J10" t="n">
-        <v>2848.21599284177</v>
+        <v>2.84821599284177</v>
       </c>
       <c r="K10" t="n">
-        <v>11156.0767376749</v>
+        <v>11.1560767376749</v>
       </c>
       <c r="L10" t="n">
-        <v>42516.1897939182</v>
+        <v>42.5161897939182</v>
       </c>
       <c r="M10" t="n">
         <v>3.81103418286267</v>
@@ -13144,7 +13144,7 @@
         <v>1.33333333333333</v>
       </c>
       <c r="O10" t="n">
-        <v>31887.1423454387</v>
+        <v>31.8871423454386</v>
       </c>
       <c r="P10" t="n">
         <v>2.858275637147</v>
@@ -13234,28 +13234,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0114047426666667</v>
+        <v>0.0000114047426666667</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36829093649085</v>
+        <v>0.00036829093649085</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00760362433333333</v>
+        <v>0.00000760362433333333</v>
       </c>
       <c r="I2" t="n">
-        <v>0.163694818801579</v>
+        <v>0.000163694818801579</v>
       </c>
       <c r="J2" t="n">
-        <v>0.654779275206315</v>
+        <v>0.000654779275206315</v>
       </c>
       <c r="K2" t="n">
-        <v>0.951659198062433</v>
+        <v>0.000951659198062433</v>
       </c>
       <c r="L2" t="n">
-        <v>1.65780437746681</v>
+        <v>0.00165780437746681</v>
       </c>
       <c r="M2" t="n">
         <v>1.74201476835624</v>
@@ -13264,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.552601459155604</v>
+        <v>0.000552601459155604</v>
       </c>
       <c r="P2" t="n">
         <v>0.580671589452079</v>
@@ -13287,28 +13287,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003802506</v>
+        <v>0.000003802506</v>
       </c>
       <c r="F3" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0409311733046286</v>
+        <v>0.0000409311733046286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0085567865</v>
+        <v>0.0000085567865</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.230268743272336</v>
+        <v>-0.000230268743272336</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.921074973089344</v>
+        <v>-0.000921074973089344</v>
       </c>
       <c r="K3" t="n">
-        <v>0.951659198062433</v>
+        <v>0.000951659198062433</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65780437746681</v>
+        <v>0.00165780437746681</v>
       </c>
       <c r="M3" t="n">
         <v>1.74201476835624</v>
@@ -13317,7 +13317,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.552601459155604</v>
+        <v>0.000552601459155604</v>
       </c>
       <c r="P3" t="n">
         <v>0.580671589452079</v>
@@ -13340,28 +13340,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.013311067</v>
+        <v>0.000013311067</v>
       </c>
       <c r="F4" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.50149337459634</v>
+        <v>0.00050149337459634</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008557369</v>
+        <v>0.000008557369</v>
       </c>
       <c r="I4" t="n">
-        <v>0.230284418729817</v>
+        <v>0.000230284418729817</v>
       </c>
       <c r="J4" t="n">
-        <v>0.921137674919268</v>
+        <v>0.000921137674919268</v>
       </c>
       <c r="K4" t="n">
-        <v>0.951659198062433</v>
+        <v>0.000951659198062433</v>
       </c>
       <c r="L4" t="n">
-        <v>1.65780437746681</v>
+        <v>0.00165780437746681</v>
       </c>
       <c r="M4" t="n">
         <v>1.74201476835624</v>
@@ -13370,7 +13370,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.552601459155604</v>
+        <v>0.000552601459155604</v>
       </c>
       <c r="P4" t="n">
         <v>0.580671589452079</v>
@@ -13393,28 +13393,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003803671</v>
+        <v>0.000003803671</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0409437136706136</v>
+        <v>0.0000409437136706136</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0019018355</v>
+        <v>0.0000019018355</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0204718568353068</v>
+        <v>0.0000204718568353068</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0818874273412271</v>
+        <v>0.0000818874273412271</v>
       </c>
       <c r="K5" t="n">
-        <v>0.951659198062433</v>
+        <v>0.000951659198062433</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65780437746681</v>
+        <v>0.00165780437746681</v>
       </c>
       <c r="M5" t="n">
         <v>1.74201476835624</v>
@@ -13423,7 +13423,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.552601459155604</v>
+        <v>0.000552601459155604</v>
       </c>
       <c r="P5" t="n">
         <v>0.580671589452079</v>
@@ -13513,28 +13513,28 @@
         <v>14.3523501973448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00106666666666667</v>
+        <v>0.00000106666666666667</v>
       </c>
       <c r="F2" t="n">
         <v>-149.264442052386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0153091735438345</v>
+        <v>0.0000153091735438345</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0362315176279279</v>
+        <v>0.0000362315176279279</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.40807726344385</v>
+        <v>-0.00540807726344385</v>
       </c>
       <c r="J2" t="n">
-        <v>-21.6323090537754</v>
+        <v>-0.0216323090537754</v>
       </c>
       <c r="K2" t="n">
-        <v>26.6001682528419</v>
+        <v>0.0266001682528419</v>
       </c>
       <c r="L2" t="n">
-        <v>71.9694726687135</v>
+        <v>0.0719694726687135</v>
       </c>
       <c r="M2" t="n">
         <v>2.70560215952862</v>
@@ -13543,7 +13543,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>23.9898242229045</v>
+        <v>0.0239898242229045</v>
       </c>
       <c r="P2" t="n">
         <v>0.901867386509539</v>
@@ -13566,28 +13566,28 @@
         <v>163.616792249731</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0713963685891892</v>
+        <v>0.0000713963685891892</v>
       </c>
       <c r="F3" t="n">
         <v>62.43272335845</v>
       </c>
       <c r="G3" t="n">
-        <v>11.6816448068426</v>
+        <v>0.0116816448068426</v>
       </c>
       <c r="H3" t="n">
-        <v>0.103696416683483</v>
+        <v>0.000103696416683483</v>
       </c>
       <c r="I3" t="n">
-        <v>6.47404969606248</v>
+        <v>0.00647404969606248</v>
       </c>
       <c r="J3" t="n">
-        <v>25.8961987842499</v>
+        <v>0.0258961987842499</v>
       </c>
       <c r="K3" t="n">
-        <v>26.6001682528419</v>
+        <v>0.0266001682528419</v>
       </c>
       <c r="L3" t="n">
-        <v>71.9694726687135</v>
+        <v>0.0719694726687135</v>
       </c>
       <c r="M3" t="n">
         <v>2.70560215952862</v>
@@ -13596,7 +13596,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>23.9898242229045</v>
+        <v>0.0239898242229045</v>
       </c>
       <c r="P3" t="n">
         <v>0.901867386509539</v>
@@ -13619,28 +13619,28 @@
         <v>101.184068891281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.135996464777778</v>
+        <v>0.000135996464777778</v>
       </c>
       <c r="F4" t="n">
         <v>90.4198062432723</v>
       </c>
       <c r="G4" t="n">
-        <v>13.7606756610453</v>
+        <v>0.0137606756610453</v>
       </c>
       <c r="H4" t="n">
-        <v>0.121069150888889</v>
+        <v>0.000121069150888889</v>
       </c>
       <c r="I4" t="n">
-        <v>10.9470491654108</v>
+        <v>0.0109470491654108</v>
       </c>
       <c r="J4" t="n">
-        <v>43.7881966616434</v>
+        <v>0.0437881966616433</v>
       </c>
       <c r="K4" t="n">
-        <v>26.6001682528419</v>
+        <v>0.0266001682528419</v>
       </c>
       <c r="L4" t="n">
-        <v>71.9694726687135</v>
+        <v>0.0719694726687135</v>
       </c>
       <c r="M4" t="n">
         <v>2.70560215952862</v>
@@ -13649,7 +13649,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>23.9898242229045</v>
+        <v>0.0239898242229045</v>
       </c>
       <c r="P4" t="n">
         <v>0.901867386509539</v>
@@ -13672,28 +13672,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.106141837</v>
+        <v>0.000106141837</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14253861141012</v>
+        <v>0.00114253861141012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0530709185</v>
+        <v>0.0000530709185</v>
       </c>
       <c r="I5" t="n">
-        <v>0.571269305705059</v>
+        <v>0.000571269305705059</v>
       </c>
       <c r="J5" t="n">
-        <v>2.28507722282024</v>
+        <v>0.00228507722282024</v>
       </c>
       <c r="K5" t="n">
-        <v>26.6001682528419</v>
+        <v>0.0266001682528419</v>
       </c>
       <c r="L5" t="n">
-        <v>71.9694726687135</v>
+        <v>0.0719694726687135</v>
       </c>
       <c r="M5" t="n">
         <v>2.70560215952862</v>
@@ -13702,7 +13702,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>23.9898242229045</v>
+        <v>0.0239898242229045</v>
       </c>
       <c r="P5" t="n">
         <v>0.901867386509539</v>
@@ -13792,28 +13792,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.189239823</v>
+        <v>0.000189239823</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>2.03702715823466</v>
+        <v>0.00203702715823466</v>
       </c>
       <c r="H2" t="n">
-        <v>0.60418947375</v>
+        <v>0.00060418947375</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.5036541846071</v>
+        <v>-0.0065036541846071</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.5255792922497</v>
+        <v>-0.0455255792922497</v>
       </c>
       <c r="K2" t="n">
-        <v>527.190095419208</v>
+        <v>0.527190095419208</v>
       </c>
       <c r="L2" t="n">
-        <v>1663.84641915471</v>
+        <v>1.66384641915471</v>
       </c>
       <c r="M2" t="n">
         <v>3.15606539958164</v>
@@ -13822,7 +13822,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>970.577077840245</v>
+        <v>0.970577077840245</v>
       </c>
       <c r="P2" t="n">
         <v>1.84103814975596</v>
@@ -13845,28 +13845,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0191391245</v>
+        <v>0.0010191391245</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>21.9405624219591</v>
+        <v>0.0219405624219591</v>
       </c>
       <c r="H3" t="n">
-        <v>0.88086916975</v>
+        <v>0.00088086916975</v>
       </c>
       <c r="I3" t="n">
-        <v>9.48190710172228</v>
+        <v>0.00948190710172228</v>
       </c>
       <c r="J3" t="n">
-        <v>66.373349712056</v>
+        <v>0.066373349712056</v>
       </c>
       <c r="K3" t="n">
-        <v>527.190095419208</v>
+        <v>0.527190095419208</v>
       </c>
       <c r="L3" t="n">
-        <v>1663.84641915471</v>
+        <v>1.66384641915471</v>
       </c>
       <c r="M3" t="n">
         <v>3.15606539958164</v>
@@ -13875,7 +13875,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>970.577077840245</v>
+        <v>0.970577077840245</v>
       </c>
       <c r="P3" t="n">
         <v>1.84103814975596</v>
@@ -13898,28 +13898,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.742599215</v>
+        <v>0.000742599215</v>
       </c>
       <c r="F4" t="n">
         <v>-7.17617509867241</v>
       </c>
       <c r="G4" t="n">
-        <v>7.99353299246502</v>
+        <v>0.00799353299246502</v>
       </c>
       <c r="H4" t="n">
-        <v>1.05732083333333</v>
+        <v>0.00105732083333333</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.58751943547423</v>
+        <v>-0.00758751943547423</v>
       </c>
       <c r="J4" t="n">
-        <v>-53.1126360483196</v>
+        <v>-0.0531126360483196</v>
       </c>
       <c r="K4" t="n">
-        <v>527.190095419208</v>
+        <v>0.527190095419208</v>
       </c>
       <c r="L4" t="n">
-        <v>1663.84641915471</v>
+        <v>1.66384641915471</v>
       </c>
       <c r="M4" t="n">
         <v>3.15606539958164</v>
@@ -13928,7 +13928,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>970.577077840245</v>
+        <v>0.970577077840245</v>
       </c>
       <c r="P4" t="n">
         <v>1.84103814975596</v>
@@ -13951,28 +13951,28 @@
         <v>17.940437746681</v>
       </c>
       <c r="E5" t="n">
-        <v>1.37204245166667</v>
+        <v>0.00137204245166667</v>
       </c>
       <c r="F5" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G5" t="n">
-        <v>24.6150421899294</v>
+        <v>0.0246150421899294</v>
       </c>
       <c r="H5" t="n">
-        <v>1.37208490633333</v>
+        <v>0.00137208490633333</v>
       </c>
       <c r="I5" t="n">
-        <v>9.84632153809353</v>
+        <v>0.00984632153809353</v>
       </c>
       <c r="J5" t="n">
-        <v>68.9242507666547</v>
+        <v>0.0689242507666547</v>
       </c>
       <c r="K5" t="n">
-        <v>527.190095419208</v>
+        <v>0.527190095419208</v>
       </c>
       <c r="L5" t="n">
-        <v>1663.84641915471</v>
+        <v>1.66384641915471</v>
       </c>
       <c r="M5" t="n">
         <v>3.15606539958164</v>
@@ -13981,7 +13981,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>970.577077840245</v>
+        <v>0.970577077840245</v>
       </c>
       <c r="P5" t="n">
         <v>1.84103814975596</v>
@@ -14004,16 +14004,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.372127361</v>
+        <v>0.001372127361</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.7699393003229</v>
+        <v>0.0147699393003229</v>
       </c>
       <c r="H6" t="n">
-        <v>1.573526114</v>
+        <v>0.001573526114</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -14022,10 +14022,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>527.190095419208</v>
+        <v>0.527190095419208</v>
       </c>
       <c r="L6" t="n">
-        <v>1663.84641915471</v>
+        <v>1.66384641915471</v>
       </c>
       <c r="M6" t="n">
         <v>3.15606539958164</v>
@@ -14034,7 +14034,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O6" t="n">
-        <v>970.577077840245</v>
+        <v>0.970577077840245</v>
       </c>
       <c r="P6" t="n">
         <v>1.84103814975596</v>
@@ -14057,16 +14057,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.774924867</v>
+        <v>0.001774924867</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19.1057574488698</v>
+        <v>0.0191057574488698</v>
       </c>
       <c r="H7" t="n">
-        <v>21.1734888985</v>
+        <v>0.0211734888985</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -14075,10 +14075,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>527.190095419208</v>
+        <v>0.527190095419208</v>
       </c>
       <c r="L7" t="n">
-        <v>1663.84641915471</v>
+        <v>1.66384641915471</v>
       </c>
       <c r="M7" t="n">
         <v>3.15606539958164</v>
@@ -14087,7 +14087,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O7" t="n">
-        <v>970.577077840245</v>
+        <v>0.970577077840245</v>
       </c>
       <c r="P7" t="n">
         <v>1.84103814975596</v>
@@ -14110,28 +14110,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>40.57205293</v>
+        <v>0.04057205293</v>
       </c>
       <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>436.728233907427</v>
+        <v>0.436728233907427</v>
       </c>
       <c r="H8" t="n">
-        <v>20.286026465</v>
+        <v>0.020286026465</v>
       </c>
       <c r="I8" t="n">
-        <v>218.364116953714</v>
+        <v>0.218364116953714</v>
       </c>
       <c r="J8" t="n">
-        <v>1528.548818676</v>
+        <v>1.528548818676</v>
       </c>
       <c r="K8" t="n">
-        <v>527.190095419208</v>
+        <v>0.527190095419208</v>
       </c>
       <c r="L8" t="n">
-        <v>1663.84641915471</v>
+        <v>1.66384641915471</v>
       </c>
       <c r="M8" t="n">
         <v>3.15606539958164</v>
@@ -14140,7 +14140,7 @@
         <v>1.71428571428571</v>
       </c>
       <c r="O8" t="n">
-        <v>970.577077840245</v>
+        <v>0.970577077840245</v>
       </c>
       <c r="P8" t="n">
         <v>1.84103814975596</v>
@@ -14230,28 +14230,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.50945965</v>
+        <v>0.00050945965</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>5.48395748116254</v>
+        <v>0.00548395748116254</v>
       </c>
       <c r="H2" t="n">
-        <v>0.254729825</v>
+        <v>0.000254729825</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74197874058127</v>
+        <v>0.00274197874058127</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74197874058127</v>
+        <v>0.00274197874058127</v>
       </c>
       <c r="K2" t="n">
-        <v>5.48395748116254</v>
+        <v>0.00548395748116254</v>
       </c>
       <c r="L2" t="n">
-        <v>2.74197874058127</v>
+        <v>0.00274197874058127</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -14260,7 +14260,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.228498228381773</v>
+        <v>0.000228498228381773</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -14350,16 +14350,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.142372507</v>
+        <v>0.000142372507</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53253505920344</v>
+        <v>0.00153253505920344</v>
       </c>
       <c r="H2" t="n">
-        <v>51.6382076535</v>
+        <v>0.0516382076535</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -14368,10 +14368,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1111.69445970936</v>
+        <v>1.11169445970937</v>
       </c>
       <c r="L2" t="n">
-        <v>1110.16192465016</v>
+        <v>1.11016192465016</v>
       </c>
       <c r="M2" t="n">
         <v>0.998621442208497</v>
@@ -14380,7 +14380,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>185.026987441694</v>
+        <v>0.185026987441694</v>
       </c>
       <c r="P2" t="n">
         <v>0.166436907034749</v>
@@ -14403,28 +14403,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>103.1340428</v>
+        <v>0.1031340428</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1110.16192465016</v>
+        <v>1.11016192465016</v>
       </c>
       <c r="H3" t="n">
-        <v>51.5670214</v>
+        <v>0.0515670214</v>
       </c>
       <c r="I3" t="n">
-        <v>555.080962325081</v>
+        <v>0.555080962325081</v>
       </c>
       <c r="J3" t="n">
-        <v>1110.16192465016</v>
+        <v>1.11016192465016</v>
       </c>
       <c r="K3" t="n">
-        <v>1111.69445970936</v>
+        <v>1.11169445970937</v>
       </c>
       <c r="L3" t="n">
-        <v>1110.16192465016</v>
+        <v>1.11016192465016</v>
       </c>
       <c r="M3" t="n">
         <v>0.998621442208497</v>
@@ -14433,7 +14433,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>185.026987441694</v>
+        <v>0.185026987441694</v>
       </c>
       <c r="P3" t="n">
         <v>0.166436907034749</v>
@@ -14523,28 +14523,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004</v>
+        <v>0.000004</v>
       </c>
       <c r="F2" t="n">
         <v>-77.502691065662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0430570505920344</v>
+        <v>0.0000430570505920344</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0906814543936404</v>
+        <v>0.0000906814543936403</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.02805674525523</v>
+        <v>-0.00702805674525523</v>
       </c>
       <c r="J2" t="n">
-        <v>-28.1122269810209</v>
+        <v>-0.0281122269810209</v>
       </c>
       <c r="K2" t="n">
-        <v>562.5184026229</v>
+        <v>0.5625184026229</v>
       </c>
       <c r="L2" t="n">
-        <v>1252.73655029651</v>
+        <v>1.25273655029651</v>
       </c>
       <c r="M2" t="n">
         <v>2.22701434202912</v>
@@ -14553,7 +14553,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>417.578850098836</v>
+        <v>0.417578850098836</v>
       </c>
       <c r="P2" t="n">
         <v>0.742338114009706</v>
@@ -14576,28 +14576,28 @@
         <v>88.2669537136706</v>
       </c>
       <c r="E3" t="n">
-        <v>0.177362908787281</v>
+        <v>0.000177362908787281</v>
       </c>
       <c r="F3" t="n">
         <v>-180.839612486545</v>
       </c>
       <c r="G3" t="n">
-        <v>15.6552836604489</v>
+        <v>0.0156552836604489</v>
       </c>
       <c r="H3" t="n">
-        <v>1.08489075341587</v>
+        <v>0.00108489075341587</v>
       </c>
       <c r="I3" t="n">
-        <v>-196.191223437962</v>
+        <v>-0.196191223437962</v>
       </c>
       <c r="J3" t="n">
-        <v>-784.764893751849</v>
+        <v>-0.784764893751849</v>
       </c>
       <c r="K3" t="n">
-        <v>562.5184026229</v>
+        <v>0.5625184026229</v>
       </c>
       <c r="L3" t="n">
-        <v>1252.73655029651</v>
+        <v>1.25273655029651</v>
       </c>
       <c r="M3" t="n">
         <v>2.22701434202912</v>
@@ -14606,7 +14606,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>417.578850098836</v>
+        <v>0.417578850098836</v>
       </c>
       <c r="P3" t="n">
         <v>0.742338114009706</v>
@@ -14629,28 +14629,28 @@
         <v>269.106566200215</v>
       </c>
       <c r="E4" t="n">
-        <v>1.99241859804447</v>
+        <v>0.00199241859804447</v>
       </c>
       <c r="F4" t="n">
         <v>247.578040904198</v>
       </c>
       <c r="G4" t="n">
-        <v>536.172927353193</v>
+        <v>0.536172927353194</v>
       </c>
       <c r="H4" t="n">
-        <v>1.24348899914723</v>
+        <v>0.00124348899914723</v>
       </c>
       <c r="I4" t="n">
-        <v>307.860570294794</v>
+        <v>0.307860570294794</v>
       </c>
       <c r="J4" t="n">
-        <v>1231.44228117918</v>
+        <v>1.23144228117918</v>
       </c>
       <c r="K4" t="n">
-        <v>562.5184026229</v>
+        <v>0.5625184026229</v>
       </c>
       <c r="L4" t="n">
-        <v>1252.73655029651</v>
+        <v>1.25273655029651</v>
       </c>
       <c r="M4" t="n">
         <v>2.22701434202912</v>
@@ -14659,7 +14659,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>417.578850098836</v>
+        <v>0.417578850098836</v>
       </c>
       <c r="P4" t="n">
         <v>0.742338114009706</v>
@@ -14682,28 +14682,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.49455940025</v>
+        <v>0.00049455940025</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6471345586652</v>
+        <v>0.0106471345586652</v>
       </c>
       <c r="H5" t="n">
-        <v>0.247279700125</v>
+        <v>0.000247279700125</v>
       </c>
       <c r="I5" t="n">
-        <v>5.32356727933262</v>
+        <v>0.00532356727933262</v>
       </c>
       <c r="J5" t="n">
-        <v>21.2942691173305</v>
+        <v>0.0212942691173305</v>
       </c>
       <c r="K5" t="n">
-        <v>562.5184026229</v>
+        <v>0.5625184026229</v>
       </c>
       <c r="L5" t="n">
-        <v>1252.73655029651</v>
+        <v>1.25273655029651</v>
       </c>
       <c r="M5" t="n">
         <v>2.22701434202912</v>
@@ -14712,7 +14712,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>417.578850098836</v>
+        <v>0.417578850098836</v>
       </c>
       <c r="P5" t="n">
         <v>0.742338114009706</v>
@@ -14802,16 +14802,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.069268369</v>
+        <v>0.000069268369</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745622917115178</v>
+        <v>0.000745622917115178</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1468798605</v>
+        <v>0.0001468798605</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -14820,10 +14820,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>84.6592382642627</v>
+        <v>0.0846592382642627</v>
       </c>
       <c r="L2" t="n">
-        <v>126.919716119483</v>
+        <v>0.126919716119483</v>
       </c>
       <c r="M2" t="n">
         <v>1.49918329909023</v>
@@ -14832,7 +14832,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>42.3065720398278</v>
+        <v>0.0423065720398278</v>
       </c>
       <c r="P2" t="n">
         <v>0.499727766363411</v>
@@ -14855,16 +14855,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.224491352</v>
+        <v>0.000224491352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.41648387513455</v>
+        <v>0.00241648387513455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.950077026</v>
+        <v>0.000950077026</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -14873,10 +14873,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>84.6592382642627</v>
+        <v>0.0846592382642627</v>
       </c>
       <c r="L3" t="n">
-        <v>126.919716119483</v>
+        <v>0.126919716119483</v>
       </c>
       <c r="M3" t="n">
         <v>1.49918329909023</v>
@@ -14885,7 +14885,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>42.3065720398278</v>
+        <v>0.0423065720398278</v>
       </c>
       <c r="P3" t="n">
         <v>0.499727766363411</v>
@@ -14908,28 +14908,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.6756627</v>
+        <v>0.0016756627</v>
       </c>
       <c r="F4" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>18.0372734122713</v>
+        <v>0.0180372734122713</v>
       </c>
       <c r="H4" t="n">
-        <v>2.80297162125</v>
+        <v>0.00280297162125</v>
       </c>
       <c r="I4" t="n">
-        <v>-15.0859613630248</v>
+        <v>-0.0150859613630248</v>
       </c>
       <c r="J4" t="n">
-        <v>-60.343845452099</v>
+        <v>-0.060343845452099</v>
       </c>
       <c r="K4" t="n">
-        <v>84.6592382642627</v>
+        <v>0.0846592382642627</v>
       </c>
       <c r="L4" t="n">
-        <v>126.919716119483</v>
+        <v>0.126919716119483</v>
       </c>
       <c r="M4" t="n">
         <v>1.49918329909023</v>
@@ -14938,7 +14938,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>42.3065720398278</v>
+        <v>0.0423065720398278</v>
       </c>
       <c r="P4" t="n">
         <v>0.499727766363411</v>
@@ -14961,28 +14961,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E5" t="n">
-        <v>3.9302805425</v>
+        <v>0.0039302805425</v>
       </c>
       <c r="F5" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G5" t="n">
-        <v>63.4598580597417</v>
+        <v>0.0634598580597417</v>
       </c>
       <c r="H5" t="n">
-        <v>1.96514027125</v>
+        <v>0.00196514027125</v>
       </c>
       <c r="I5" t="n">
-        <v>31.7299290298708</v>
+        <v>0.0317299290298708</v>
       </c>
       <c r="J5" t="n">
-        <v>126.919716119483</v>
+        <v>0.126919716119483</v>
       </c>
       <c r="K5" t="n">
-        <v>84.6592382642627</v>
+        <v>0.0846592382642627</v>
       </c>
       <c r="L5" t="n">
-        <v>126.919716119483</v>
+        <v>0.126919716119483</v>
       </c>
       <c r="M5" t="n">
         <v>1.49918329909023</v>
@@ -14991,7 +14991,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>42.3065720398278</v>
+        <v>0.0423065720398278</v>
       </c>
       <c r="P5" t="n">
         <v>0.499727766363411</v>
@@ -15081,28 +15081,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0076</v>
+        <v>0.0000076</v>
       </c>
       <c r="F2" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0818083961248655</v>
+        <v>0.0000818083961248655</v>
       </c>
       <c r="H2" t="n">
-        <v>0.101955650625</v>
+        <v>0.000101955650625</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.29243220532831</v>
+        <v>-0.00329243220532831</v>
       </c>
       <c r="J2" t="n">
-        <v>-13.1697288213132</v>
+        <v>-0.0131697288213132</v>
       </c>
       <c r="K2" t="n">
-        <v>23.1317030594427</v>
+        <v>0.0231317030594427</v>
       </c>
       <c r="L2" t="n">
-        <v>48.997695737352</v>
+        <v>0.048997695737352</v>
       </c>
       <c r="M2" t="n">
         <v>2.11820528784414</v>
@@ -15111,7 +15111,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>16.332565245784</v>
+        <v>0.016332565245784</v>
       </c>
       <c r="P2" t="n">
         <v>0.706068429281381</v>
@@ -15134,28 +15134,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19631130125</v>
+        <v>0.00019631130125</v>
       </c>
       <c r="F3" t="n">
         <v>14.3523501973448</v>
       </c>
       <c r="G3" t="n">
-        <v>8.45258562970937</v>
+        <v>0.00845258562970937</v>
       </c>
       <c r="H3" t="n">
-        <v>0.292999017291667</v>
+        <v>0.000292999017291667</v>
       </c>
       <c r="I3" t="n">
-        <v>4.20522450364789</v>
+        <v>0.00420522450364789</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8208980145916</v>
+        <v>0.0168208980145916</v>
       </c>
       <c r="K3" t="n">
-        <v>23.1317030594427</v>
+        <v>0.0231317030594427</v>
       </c>
       <c r="L3" t="n">
-        <v>48.997695737352</v>
+        <v>0.048997695737352</v>
       </c>
       <c r="M3" t="n">
         <v>2.11820528784414</v>
@@ -15164,7 +15164,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>16.332565245784</v>
+        <v>0.016332565245784</v>
       </c>
       <c r="P3" t="n">
         <v>0.706068429281381</v>
@@ -15187,28 +15187,28 @@
         <v>28.7047003946896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.389686733333333</v>
+        <v>0.000389686733333333</v>
       </c>
       <c r="F4" t="n">
         <v>17.940437746681</v>
       </c>
       <c r="G4" t="n">
-        <v>11.1858409281186</v>
+        <v>0.0111858409281186</v>
       </c>
       <c r="H4" t="n">
-        <v>0.353306060166667</v>
+        <v>0.000353306060166667</v>
       </c>
       <c r="I4" t="n">
-        <v>6.33846537794522</v>
+        <v>0.00633846537794522</v>
       </c>
       <c r="J4" t="n">
-        <v>25.3538615117809</v>
+        <v>0.0253538615117809</v>
       </c>
       <c r="K4" t="n">
-        <v>23.1317030594427</v>
+        <v>0.0231317030594427</v>
       </c>
       <c r="L4" t="n">
-        <v>48.997695737352</v>
+        <v>0.048997695737352</v>
       </c>
       <c r="M4" t="n">
         <v>2.11820528784414</v>
@@ -15217,7 +15217,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>16.332565245784</v>
+        <v>0.016332565245784</v>
       </c>
       <c r="P4" t="n">
         <v>0.706068429281381</v>
@@ -15240,28 +15240,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.316925387</v>
+        <v>0.000316925387</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>3.41146810548977</v>
+        <v>0.00341146810548977</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1584626935</v>
+        <v>0.0001584626935</v>
       </c>
       <c r="I5" t="n">
-        <v>1.70573405274489</v>
+        <v>0.00170573405274489</v>
       </c>
       <c r="J5" t="n">
-        <v>6.82293621097955</v>
+        <v>0.00682293621097955</v>
       </c>
       <c r="K5" t="n">
-        <v>23.1317030594427</v>
+        <v>0.0231317030594427</v>
       </c>
       <c r="L5" t="n">
-        <v>48.997695737352</v>
+        <v>0.048997695737352</v>
       </c>
       <c r="M5" t="n">
         <v>2.11820528784414</v>
@@ -15270,7 +15270,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>16.332565245784</v>
+        <v>0.016332565245784</v>
       </c>
       <c r="P5" t="n">
         <v>0.706068429281381</v>
@@ -15360,28 +15360,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.577752554</v>
+        <v>0.000577752554</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>6.21908023681378</v>
+        <v>0.00621908023681378</v>
       </c>
       <c r="H2" t="n">
-        <v>1.232542927</v>
+        <v>0.001232542927</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.2674157911733</v>
+        <v>-0.0132674157911733</v>
       </c>
       <c r="J2" t="n">
-        <v>-53.0696631646932</v>
+        <v>-0.0530696631646932</v>
       </c>
       <c r="K2" t="n">
-        <v>138.616393013994</v>
+        <v>0.138616393013994</v>
       </c>
       <c r="L2" t="n">
-        <v>182.503083724435</v>
+        <v>0.182503083724435</v>
       </c>
       <c r="M2" t="n">
         <v>1.3166053433955</v>
@@ -15390,13 +15390,13 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>60.8343612414783</v>
+        <v>0.0608343612414783</v>
       </c>
       <c r="P2" t="n">
         <v>0.438868447798501</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0585827376048323</v>
+        <v>0.0585827376048324</v>
       </c>
     </row>
     <row r="3">
@@ -15413,16 +15413,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8873333</v>
+        <v>0.0018873333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>40.6315026910657</v>
+        <v>0.0406315026910657</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3724698625</v>
+        <v>0.0023724698625</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -15431,10 +15431,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.616393013994</v>
+        <v>0.138616393013994</v>
       </c>
       <c r="L3" t="n">
-        <v>182.503083724435</v>
+        <v>0.182503083724435</v>
       </c>
       <c r="M3" t="n">
         <v>1.3166053433955</v>
@@ -15443,13 +15443,13 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>60.8343612414783</v>
+        <v>0.0608343612414783</v>
       </c>
       <c r="P3" t="n">
         <v>0.438868447798501</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0585827376048323</v>
+        <v>0.0585827376048324</v>
       </c>
     </row>
     <row r="4">
@@ -15466,28 +15466,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>2.857606425</v>
+        <v>0.002857606425</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>61.5200522066739</v>
+        <v>0.0615200522066739</v>
       </c>
       <c r="H4" t="n">
-        <v>2.833718666</v>
+        <v>0.002833718666</v>
       </c>
       <c r="I4" t="n">
-        <v>30.5028919913886</v>
+        <v>0.0305028919913886</v>
       </c>
       <c r="J4" t="n">
-        <v>122.011567965554</v>
+        <v>0.122011567965554</v>
       </c>
       <c r="K4" t="n">
-        <v>138.616393013994</v>
+        <v>0.138616393013994</v>
       </c>
       <c r="L4" t="n">
-        <v>182.503083724435</v>
+        <v>0.182503083724435</v>
       </c>
       <c r="M4" t="n">
         <v>1.3166053433955</v>
@@ -15496,13 +15496,13 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>60.8343612414783</v>
+        <v>0.0608343612414783</v>
       </c>
       <c r="P4" t="n">
         <v>0.438868447798501</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0585827376048323</v>
+        <v>0.0585827376048324</v>
       </c>
     </row>
     <row r="5">
@@ -15519,28 +15519,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>2.809830907</v>
+        <v>0.002809830907</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>30.2457578794403</v>
+        <v>0.0302457578794403</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4049154535</v>
+        <v>0.0014049154535</v>
       </c>
       <c r="I5" t="n">
-        <v>15.1228789397201</v>
+        <v>0.0151228789397201</v>
       </c>
       <c r="J5" t="n">
-        <v>60.4915157588805</v>
+        <v>0.0604915157588805</v>
       </c>
       <c r="K5" t="n">
-        <v>138.616393013994</v>
+        <v>0.138616393013994</v>
       </c>
       <c r="L5" t="n">
-        <v>182.503083724435</v>
+        <v>0.182503083724435</v>
       </c>
       <c r="M5" t="n">
         <v>1.3166053433955</v>
@@ -15549,13 +15549,13 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>60.8343612414783</v>
+        <v>0.0608343612414783</v>
       </c>
       <c r="P5" t="n">
         <v>0.438868447798501</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0585827376048323</v>
+        <v>0.0585827376048324</v>
       </c>
     </row>
   </sheetData>
